--- a/Scraping23/src/test/resources/excelsheets/Recipes.xlsx
+++ b/Scraping23/src/test/resources/excelsheets/Recipes.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Diabetes" sheetId="1" r:id="rId4"/>
-    <sheet name="Diabeties" r:id="rId5" sheetId="2"/>
+    <sheet state="visible" name="Diabeties" sheetId="1" r:id="rId4"/>
+    <sheet name="D_Allergies" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="353">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Recipe Name</t>
   </si>
   <si>
-    <t>Recipe Category(Breakfast/lunch/snack/dinner)</t>
-  </si>
-  <si>
-    <t>Food Category(Veg/non-veg/vegan/Jain)</t>
+    <t>Recipe Category</t>
+  </si>
+  <si>
+    <t>Food Category</t>
   </si>
   <si>
     <t>Ingredients</t>
@@ -43,258 +43,25 @@
     <t>Nutrient values</t>
   </si>
   <si>
-    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
-  </si>
-  <si>
-    <t>rcp40925</t>
-  </si>
-  <si>
-    <t>Avocado and Cream Cheese Sushi, Veg Avocado and Cream Cheese Sushi</t>
-  </si>
-  <si>
-    <t>Ingredients
-1 1/2 cups sliced avocados
-1 cup deseeded and sliced tomatoes
-To Be Mixed Into A Dressing
-1 tbsp olive oil
-1/2 tsp mustard (rai / sarson) powder
-1 tsp lemon juice
-salt and to taste</t>
-  </si>
-  <si>
-    <t>5 mins</t>
-  </si>
-  <si>
-    <t>0 mins</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients along with the dressing in a deep bowl and toss well.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 269 cal
-Protein 2.1 g
-Carbohydrates 3.3 g
-Fiber 1.1 g
-Fat 27.5 g
-Cholesterol 0 mg
-Sodium 7.6 mg</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-and-tomato-salad-healthy-and-quick-salad-41364r</t>
-  </si>
-  <si>
-    <t>Ingredients
-For Avocado Chocolate Mousse
-1 cup roughly chopped dark chocolate
-3/4 cup roughly chopped riped avocado
-For The Garnish
-white chocolate curls</t>
-  </si>
-  <si>
-    <t>10 mins</t>
-  </si>
-  <si>
-    <t>1 mins</t>
-  </si>
-  <si>
-    <t>For avocado chocolate mousse
-To make avocado chocolate mousse, blend the avocado in a mixer till smooth. Keep aside.
-Combine the chocolate in a microwave safe bowl and microwave on high for 1 minute. Mix well.
-Combine the avocado mixture and ¼ cup of melted chocolate in a bowl and mix well using a spatula.
-Add the remaining chocolate and mix very well using a spatula.
-Pour equal quantities of the mixture into 2 individual bowls / glasses and refrigerate for 1 hour or till the mousse sets.
-Garnish with chocolate curls.
-Serve the avocado chocolate mousse chilled.</t>
-  </si>
-  <si>
-    <t>Energy 492 cal
-Protein 8.8 g
-Carbohydrates 24.1 g
-Fiber 0 g
-Fat 52.4 g
-Cholesterol 0 mg
-Sodium 2.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-chocolate-mousse-40811r</t>
-  </si>
-  <si>
-    <t>Ingredients
-1 avocado
-1/2 cup greek yoghurt or thick hung curds (chakka dahi)
-3 tbsp chopped shallots
-1 tsp lemon juice
-1/2 tsp sea salt</t>
-  </si>
-  <si>
-    <t>Cut each avocados in halves. Remove the seed and scoop out the center portion and mash it using a fork or a masher.
-Combine all ingredients, except the sea salt and 1 tbsp of water in a mixer and blend till smooth.
-Transfer to a deep bowl, add the sea salt and mix well.
-Refrigerate till use.</t>
-  </si>
-  <si>
-    <t>Energy 47 cal
-Protein 0.7 g
-Carbohydrates 0.8 g
-Fiber 0 g
-Fat 4.3 g
-Cholesterol 1.5 mg
-Sodium 1.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-dressing-41559r</t>
-  </si>
-  <si>
-    <t>Ingredients
-1/2 cup riped avocado cubes
-1 1/2 cups roughly chopped kale
-1 cup mango pulp
-1/2 cup ice cubes</t>
-  </si>
-  <si>
-    <t>Combine all the ingredients in a mixer along with ½ cup of chilled water and blend till smooth.
-Pour equal quantities of the smoothie into 3 individual glasses and serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 118 cal
-Protein 1.5 g
-Carbohydrates 14.6 g
-Fiber 0.9 g
-Fat 6.1 g
-Cholesterol 0 mg
-Sodium 27.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-kale-and-mango-pulp-smoothie-41633r</t>
-  </si>
-  <si>
-    <t>Ingredients
-For Avocado Mash
-1/2 cup peeled and chopped ripe avocado</t>
-  </si>
-  <si>
-    <t>For avocado mash
-To make avocado mash for babies, place the avocado in a deep bowl and mash it completely with the help of a fork.
-Serve the avocado mash for babies immediately.</t>
-  </si>
-  <si>
-    <t>Energy 23 cal
-Protein 0.2 g
-Carbohydrates 0.1 g
-Fiber 0 g
-Fat 2.4 g
-Cholesterol 0 mg
-Sodium 0 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-mash--baby-and-toddler-40470r</t>
-  </si>
-  <si>
-    <t>rcp373</t>
-  </si>
-  <si>
-    <t>Avocado Salad</t>
-  </si>
-  <si>
-    <t>Ingredients
-For Avocado Spinach Pear Smoothie
-1 cup roughly chopped riped avocado
-1 1/2 cups roughly chopped spinach (palak)
-1 cup roughly chopped pears
-1 cup roughly chopped apples</t>
-  </si>
-  <si>
-    <t>15 mins</t>
-  </si>
-  <si>
-    <t>For avocado spinach pear smoothie
-Combine all the ingredients in a mixer along with 1 cup of chilled water and blend till smooth.
-Pour equal quantities of the smoothie into 3 indivdual glasses and serve the avocado spinach pear smoothie immediately.</t>
-  </si>
-  <si>
-    <t>Energy 168 cal
-Protein 1.9 g
-Carbohydrates 13.3 g
-Fiber 4.5 g
-Fat 11.9 g
-Cholesterol 0 mg
-Sodium 34.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-spinach-pear-smoothie-healthy-smoothie-41594r</t>
-  </si>
-  <si>
-    <t>Ingredients
-For Avocado Vegetable Salad
-1/4 cup avocado cubes
-1/2 cup blanched broccoli florets
-1/2 cup colored capsicum cubes
-1/4 cup tomato cubes
-1/4 cup cucumber cubes
-1/2 cup iceberg lettuce , torn into pieces
-2 tsp roasted flaxseeds (alsi)
-To Be Mixed Into A Dressing
-1 tbsp olive oil
-1/2 tsp dried mixed herbs
-2 tsp lemon juice
-salt and to taste</t>
-  </si>
-  <si>
-    <t>For avocado vegetable salad
-To make avocado vegetable salad, combine all the ingredients for the salad in a bowl. It can be taken to work in a lunch box with the dressing in a separate small container.
-Just before serving, add the dressing and toss well. Serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 302 cal
-Protein 4.9 g
-Carbohydrates 11.2 g
-Fiber 5.4 g
-Fat 26.9 g
-Cholesterol 0 mg
-Sodium 37 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-vegetable-salad-avocado-capsicum-salad-42254r</t>
-  </si>
-  <si>
-    <t>Ingredients
-For Ayran
-2 cups fresh curd (dahi)
-1 tsp finely chopped garlic (lehsun) , optional
-salt to taste
-For Serving
-4 ice-cubes</t>
-  </si>
-  <si>
-    <t>2 mins</t>
-  </si>
-  <si>
-    <t>For ayran
-To make ayran, combine all the ingredients in a mixer and blend till smooth.
-Pour equal quantities of the drink into 4 individual glasses.
-Serve ayran chilled with ice cubes.</t>
-  </si>
-  <si>
-    <t>Energy 118 cal
-Protein 4.3 g
-Carbohydrates 5.1 g
-Fiber 0 g
-Fat 6.5 g
-Cholesterol 16 mg
-Sodium 19 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/ayran-turkish-yoghurt-drink-lebanese-curd-drink-22614r</t>
+    <t>Targetted morbid conditions</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>To Add</t>
+  </si>
+  <si>
+    <t>curd</t>
   </si>
   <si>
     <t>rcp30888</t>
   </si>
   <si>
     <t>Achari Baingan</t>
+  </si>
+  <si>
+    <t>Not Available</t>
   </si>
   <si>
     <t>Ingredients
@@ -328,6 +95,9 @@
 2 tbsp finely chopped coriander (dhania)</t>
   </si>
   <si>
+    <t>15 mins</t>
+  </si>
+  <si>
     <t>Combine the brinjals with the prepared marinade in a deep bowl and toss gently. Keep aside for 5 minutes.
 Heat the oil in a kadhai and deep-fry the marinade brinjals in it till they are golden brown in colour from all the sides.
 Drain on an absorbent paper and keep aside.
@@ -348,13 +118,19 @@
 Sodium 18 mg</t>
   </si>
   <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
     <t>https://www.tarladalal.com/achari-baingan-30888r</t>
   </si>
   <si>
-    <t>Targetted morbid conditions</t>
-  </si>
-  <si>
-    <t>Recipe URL</t>
+    <t>ladies finger (bhindi)</t>
+  </si>
+  <si>
+    <t>Achari Dahi Bhindi, Punjabi Sabji</t>
+  </si>
+  <si>
+    <t>Lunch</t>
   </si>
   <si>
     <t>Ingredients
@@ -379,6 +155,9 @@
 rotis/parathas</t>
   </si>
   <si>
+    <t>10 mins</t>
+  </si>
+  <si>
     <t>13 mins</t>
   </si>
   <si>
@@ -401,6 +180,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/achari-dahi-bhindi-punjabi--sabji-22779r</t>
+  </si>
+  <si>
+    <t>Adai , Diabetic Adai Recipe</t>
+  </si>
+  <si>
+    <t>Snack</t>
   </si>
   <si>
     <t>Ingredients
@@ -446,6 +231,12 @@
     <t>https://www.tarladalal.com/adai--diabetic-adai-recipe-22270r</t>
   </si>
   <si>
+    <t>No word found from toAddList</t>
+  </si>
+  <si>
+    <t>Adai, Protein Rich Adai Recipe</t>
+  </si>
+  <si>
     <t>Ingredients
 1/2 cup raw rice (chawal)
 1/4 cup toovar (arhar) dal
@@ -490,6 +281,12 @@
     <t>https://www.tarladalal.com/adai-protein-rich-adai-recipe-33240r</t>
   </si>
   <si>
+    <t>Air Fried Bhindi, Healthy Air Fryer Crispy Okra</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
     <t>Ingredients
 For Air Fried Bhindi
 3 cups ladies finger (bhindi)
@@ -520,6 +317,9 @@
     <t>https://www.tarladalal.com/air-fried-bhindi-healthy-air-fryer-crispy-okra-42874r</t>
   </si>
   <si>
+    <t>Air Fried Shakarkand, Indian Style Sweet Potato Fries</t>
+  </si>
+  <si>
     <t>Ingredients
 For Air Fried Shakarkand
 2 large sweet potato (shakarkand)
@@ -530,6 +330,9 @@
 1 1/2 tsp olive oil</t>
   </si>
   <si>
+    <t>5 mins</t>
+  </si>
+  <si>
     <t>14 mins</t>
   </si>
   <si>
@@ -558,7 +361,7 @@
     <t>rcp4231</t>
   </si>
   <si>
-    <t>Ajwain and Turmeric Milk</t>
+    <t>Ajwain Roti, Ajwain Paratha</t>
   </si>
   <si>
     <t>Ingredients
@@ -571,6 +374,9 @@
 ghee for cooking</t>
   </si>
   <si>
+    <t>2 mins</t>
+  </si>
+  <si>
     <t>20 mins</t>
   </si>
   <si>
@@ -594,10 +400,16 @@
     <t>https://www.tarladalal.com/ajwain-roti-ajwain-paratha-4390r</t>
   </si>
   <si>
+    <t>Ajwain Water</t>
+  </si>
+  <si>
     <t>Ingredients
 For Ajwain Water
 2 tsp carom seeds (ajwain)
 2 cups water</t>
+  </si>
+  <si>
+    <t>1 mins</t>
   </si>
   <si>
     <t>For ajwain water
@@ -616,6 +428,2050 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/ajwain-water-41751r</t>
+  </si>
+  <si>
+    <t>Almond and Avocado Toast, Toasted Almond Bread Topped with Avocados</t>
+  </si>
+  <si>
+    <t>Ingredients
+8 almond bread slices
+24 avocado slices
+1 tsp olive oil for spreading
+2 tsp olive oil for drizzling
+1/4 tsp sea salt for sprinkling</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Place the almond bread slices on a greased baking tray and apply a little olive oil on each bread slice.
+Bake in pre-heated oven at 200°c(400°f) for 15 minutes, or till they turn light brown.
+Cool completely and arrange 3 avocado slices on each toasted bread slice.
+Drizzle ¼ tsp of olive oil and little sea salt evenly over each toast.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 190 cal
+Protein 3.7 g
+Carbohydrates 2.6 g
+Fiber 1.2 g
+Fat 18.4 g
+Cholesterol 0 mg
+Sodium 251 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-and-avocado-toast-toasted-almond-bread-topped-with-avocados-41537r</t>
+  </si>
+  <si>
+    <t>rcp41134</t>
+  </si>
+  <si>
+    <t>Almond Bhakri, Gluten Free Almond Bhakri</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup almonds (badam) , soaked for 1 hour in hot and drained
+2 tsp ghee
+salt to taste
+ghee for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Peel the almonds.
+Blend the almonds in a mixer to a smooth mixture without using any water.
+Transfer the mixture into a deep bowl, add the ghee and salt and mix well to make a dough without using any water.
+Divide the dough into 6 equal portions.
+Grease the rolling board with ghee, put a portion of the dough and pat it to make a 100 mm. (4”) dimeter circle without using any flour.
+Heat a non-stick tava (griddle) and cook the bhakri using ghee till it turns golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 5 more bhakris.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 3.5 g
+Carbohydrates 3.2 g
+Fiber 2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
+  </si>
+  <si>
+    <t>rcp41958</t>
+  </si>
+  <si>
+    <t>Aloo Fry Recipe, How To Make Potato Fry</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups potato cubes
+2 tbsp mustard (rai / sarson) oil
+1/4 tsp turmeric (haldi) powder
+1 tsp kashmiri red chilli powder
+1/2 tsp red chilli powder
+1 tsp coriander (dhania) powder
+1 tsp cumin seeds (jeera) powder
+1/4 tsp asafoetida (hing)
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-sick pan, add the potatoes and sauté on a medium flame for 6 to 7 minutes.
+Add the turmeric, kashmiri red chilli powder, red chilli powder, coriander powder, cumin seeds powder, asafoetida, garam masala, and salt , mix well and sauté on a medium flame for 7 minutes.
+Switch off the flame, add the dried mango powder and coriander and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 1 g
+Carbohydrates 14 g
+Fiber 1.1 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 7.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-fry-recipe-how-to-make-potato-fry-41958r</t>
+  </si>
+  <si>
+    <t>Aloo Gobhi Ka Pulao</t>
+  </si>
+  <si>
+    <t>Ingredients
+3/4 cup potato cubes
+1 cup cauliflower florets
+3/4 cup rice (chawal) , soaked for 15 minutes and drained
+2 tsp ghee
+1/2 tsp cumin seeds (jeera)
+25 mm (1”) cinnamon (dalchini)
+3 cloves (laung / lavang)
+1 bayleaf (tejpatta)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Heat the ghee in a pressure cooker, add the cumin seeds, cinnamon, cloves and bayleaf and sauté on a medium flame for a few seconds.
+Add the rice and sauté on a slow flame for 2 minutes.
+Add the potatoes, cauliflower, turmeric powder, chilli powder, salt and 2 cups of water, mix well and pressure cook on a medium flame for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 148 cal
+Protein 2.8 g
+Carbohydrates 28.1 g
+Fiber 2.2 g
+Fat 2.7 g
+Cholesterol 0 mg
+Vitamin A 32.2 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 1 mg
+Vitamin C 13.3 mg
+Calcium 10.8 mg
+Iron 0.5 mg
+Folic Acid 5.3 mcg
+Sodium 11.7 mg
+Potassium 68.1 mg
+Zinc 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobhi-ka-pulao-22374r</t>
+  </si>
+  <si>
+    <t>Aloo Gobi ka Pulao in Pressure Cooker, Cauliflower Pulao</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Gobi ka Pulao
+3/4 cup peeled potato cubes
+1 cup cauliflower florets
+1 1/2 cups long grain rice (basmati chawal) , soaked and drained
+2 tbsp ghee
+25 mm cinnamon (dalchini)
+5 to 6 cloves (laung / lavang)
+2 bay leaves (tejpatta)
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+salt to taste
+For The Garnish
+2 tbsp coarsely crushed papad</t>
+  </si>
+  <si>
+    <t>For aloo gobi ka pulao
+To make aloo gobi ka pulao, heat the ghee in a pressure cooker, add the cinnamon, cloves and bayleaves and sauté on a medium flame for a few seconds.
+Add the rice and sauté on a medium flame for 1 to 2 minutes.
+Add the, cauliflower, potatoes, turmeric powder, chilli powder and salt and sauté on a medium flame for 1 minute.
+Add 3½ cups of hot water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot aloo gobi ka pulao garnished with papad.</t>
+  </si>
+  <si>
+    <t>Energy 304 cal
+Protein 5.2 g
+Carbohydrates 55.2 g
+Fiber 1.2 g
+Fat 6.9 g
+Cholesterol 0 mg
+Sodium 16.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-ka-pulao-in-pressure-cooker-cauliflower-pulao-33365r</t>
+  </si>
+  <si>
+    <t>Aloo Gobi Ke Parathe, Aloo Cauliflower Paratha Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Aloo Gobi Stuffing
+1 cup boiled , peeled and mashed potatoes
+1/2 cup grated cauliflower
+2 tbsp oil
+1/2 tsp cumin seeds (jeera)
+2 tsp ginger-green chilli paste
+1 tsp coriander (dhania) powder
+1/2 tsp turmeric powder (haldi)
+2 tsp chaat masala
+salt to taste
+For The Dough
+1 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+2 to 3 drops of oil for kneading
+Other Ingredients For Aloo Gobi Ke Parathe
+whole wheat flour (gehun ka atta) for rolling
+oil for cooking
+For Serving With Aloo Gobi Ke Parathe
+curds
+pickle</t>
+  </si>
+  <si>
+    <t>For the aloo gobi stuffing
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the ginger-green chilli paste and cauliflower and sauté on a medium flame for 2 to 3 minutes.
+Add the coriander powder, turmeric powder, chaat masala and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the potatoes, mix well and cook on a medium flame for 1 minute, while stirring occasionally. Keep aside to cool slightly.
+For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Add oil to the dough and knead well.
+Divide the dough into 6 equal portions and keep aside.
+How to proceed to make aloo gobi ke parathe
+To make aloo gobi ke parathe, divide the aloo gobi stuffing into 6 equal portions and keep aside.
+Roll a portion of the dough into a 100 mm. (4") diameter circle using a little whole wheat flour for rolling.
+Place one portion of the aloo gobi stuffing in the centre, bring together all the sides in the centre and seal it tightly.
+Roll out again into a 125 mm. (5") diameter circle using a little whole wheat flour.
+Heat a non-stick tava (griddle) and cook the paratha on a medium flame, using a little oil, till golden brown spots appear on both the sides.
+Repeat steps 2 to 5 to make 5 more parathas.
+Serve the aloo gobi ke parathe hot with pickle and curds.</t>
+  </si>
+  <si>
+    <t>Energy 244 cal
+Protein 3.3 g
+Carbohydrates 23.5 g
+Fiber 3.4 g
+Fat 15.6 g
+Cholesterol 0 mg
+Sodium 11.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-ke-parathe-aloo-cauliflower-paratha-recipe-30913r</t>
+  </si>
+  <si>
+    <t>Aloo Gobi Methi Tuk</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Gobi Methi Tuk
+1 1/2 cups potato wedges
+1 cup cauliflower florets
+1 cup finely chopped fenugreek (methi)
+1 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 1/2 tsp ginger-green chilli paste
+1 1/2 tsp chaat masala
+salt to taste
+Other Ingredients For Aloo Gobi Methi Tuk
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>For aloo gobi methi tuk
+To make aloo gobi methi tuk, heat the oil for deep-frying in a deep non-stick pan and fry the potatoes till they turn golden brown in colour from all the sides. Drain on an absorbent paper. Keep aside.
+Deep-fry the cauliflower till they turn golden brown in colour from all the sides. Drain on an absorbent paper. Keep aside.
+Heat the oil in a broad non-stick pan, add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the ginger-green chilli paste and sauté on a medium flame for a few seconds.
+Add the fenugreek leaves and sauté on a medium flame for 2 minutes.
+Add the fried potato and cauliflower pieces, chaat masala and salt, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the aloo gobi methi tuk hot.</t>
+  </si>
+  <si>
+    <t>Energy 341 cal
+Protein 3.6 g
+Carbohydrates 30.5 g
+Fiber 4.7 g
+Fat 22.9 g
+Cholesterol 0 mg
+Sodium 8764.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-methi-tuk-4357r</t>
+  </si>
+  <si>
+    <t>Aloo Gobi, Aloo Gobhi Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Gobi
+1 cup roughly chopped potatoes
+1 1/2 cups cauliflower florets
+1 1/2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+2 whole dry kashmiri red chillies , broken into pieces
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt to taste
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+For The Garnish
+a sprig of coriander (dhania)
+For Serving With Aloo Gobi
+parathas/rotis</t>
+  </si>
+  <si>
+    <t>For aloo gobi
+To make aloo gobi, heat the oil in a deep non-stick kadhai, and add the cumin seed and asafoetida.
+When the seeds crackle, add the dry red chillies, ginger, garlic and green chillies and sauté on a medium flame or a few seconds.
+Add the potatoes, mix well and cover and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the cauliflower, salt and 1 tbsp of water, mix well and cover and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
+Add the turmeric powder, chilli powder, garam masala and dried mango powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Garnish the aloo gobi subzi with a sprig of coriander and serve hot with parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 208 cal
+Protein 3 g
+Carbohydrates 23.7 g
+Fiber 3.7 g
+Fat 11.3 g
+Cholesterol 0 mg
+Sodium 39.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-aloo-gobhi-recipe-22792r</t>
+  </si>
+  <si>
+    <t>Aloo Hara Masala</t>
+  </si>
+  <si>
+    <t>Ingredients
+For the masala paste
+1/4 tsp fenugreek (methi) seeds, soaked overnight in water
+1 1/2 tsp roughly chopped garlic (lehsun)
+1 tbsp roughly chopped ginger (adrak)
+2 green chillies, roughly chopped
+2 tbsp chopped mint leaves (phudina)
+2 tbsp chopped coriander (dhania)
+1 tbsp lemon juice
+salt to taste
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+2 cloves (laung / lavang)
+2 cardamoms (elaichi)
+2 tbsp mustard (rai / sarson) oil
+For the marinade
+1/2 cup fresh curds (dahi)
+1 tbsp oil
+1 tsp lemon juice
+1/2 tsp cumin seeds (jeera) powder
+1/2 tsp garam masala
+salt to taste
+Other ingredients
+2 cups parboiled potatoes, peeled and cut into 50 mm. (2") cubes
+1/2 cup capsicum, cut into 50 mm. (2") pieces
+1/2 cup tomatoes, deseeded and cut into 50 mm. (2") pieces
+1 tbsp oil for brushing
+a few onion rings for the garnish</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>For the masala paste
+Combine all the ingredients, except the oil, in a mixer and blend to a smooth paste.
+Heat the mustard oil in a kadhai, add the prepared paste and sauté for 2 minutes. Keep aside.
+How to proceed
+Combine all the ingredients for the marinade in a bowl, add the prepared masala paste and mix well.
+Add the potatoes, capsicum and tomatoes and allow them to marinate for 1 hour.
+Thread the potatoes, capsicum and tomatoes alternatively on wooden or metal skewers.
+Grill over a charcoal or electric barbeque till the vegetables are lightly and evenly browned on all sides (approx. 3 to 4 minutes) using oil for brushing.
+Serve hot garnished with onion rings.</t>
+  </si>
+  <si>
+    <t>Energy 223 cal
+Protein 2.4 g
+Carbohydrates 14.2 g
+Fiber 1.8 g
+Fat 16.9 g
+Cholesterol 0 mg
+Vitamin A 447.4 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.7 mg
+Vitamin C 41.9 mg
+Folic Acid 16 mcg
+Calcium 79.8 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 12.6 mg
+Potassium 188.9 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-hara-masala-30942r</t>
+  </si>
+  <si>
+    <t>Aloo Khaas</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups thickly sliced potatoes
+3 tbsp ghee
+1/2 tsp cumin seeds (jeera)
+1/2 tsp aniseeds (vilayati saunf)
+1/4 tsp nigella seeds (kalonji)
+1/4 tsp fenugreek (methi) seeds
+3 whole dry kashmiri red chillies , broken into pieces
+2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup thinly sliced onions
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1/2 tsp chaat masala
+For The Garnish
+2 tsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the ghee in a deep non-stick kadhai, add the cumin seeds, aniseeds, nigella seeds, fenugreek seeds and red chillies
+When the seeds crackle, add the ginger-garlic paste and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 5 minutes.
+Add the turmeric powder, potatoes and salt, mix well and cover with a lid and cook on a slow flame for 8 minutes or till the potatoes are cooked, while stirring occasionally.
+Add the chaat masala and mix well.
+Serve immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 0.9 g
+Carbohydrates 12 g
+Fiber 0.9 g
+Fat 13.1 g
+Cholesterol 0 mg
+Vitamin A 128.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.6 mg
+Vitamin C 9.3 mg
+Folic Acid 8.8 mcg
+Calcium 9.5 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.7 mg
+Potassium 131.3 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-khaas-30960r</t>
+  </si>
+  <si>
+    <t>Aloo ki Puri, Aloo Poori, Masala Poori</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo ki Puri
+1/2 cup boiled , peeled and grated potatoes
+1 1/4 cups plain flour (maida)
+1 cup whole wheat flour (gehun ka atta)
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+1/2 tsp cumin seeds (jeera) powder
+1/4 tsp turmeric powder (haldi)
+1/4 tsp freshly ground black pepper (kalimirch)
+1 tbsp melted ghee
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>For aloo ki puri
+To make aloo ki puri, combine all the ingredients in a deep bowl and knead into a stiff dough using enough water.
+Divide the dough into 35 equal portions and roll each portion into a 75 mm. (3”) diameter circle.
+Heat the oil in a deep non-stick pan and deep-fry, a few puris at a time, till they turn golden brown in colour from both the sides. Drain on an absorbent paper.
+Serve the aloo ki puri immediately.</t>
+  </si>
+  <si>
+    <t>Energy 86 cal
+Protein 1.1 g
+Carbohydrates 7.8 g
+Fiber 0.1 g
+Fat 5.6 g
+Cholesterol 0 mg
+Vitamin A 52.6 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.3 mg
+Vitamin C 0.3 mg
+Folic Acid 0.3 mcg
+Calcium 2.5 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1.1 mg
+Potassium 17.6 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-ki-puri-aloo-poori-masala-poori-243r</t>
+  </si>
+  <si>
+    <t>Aloo Kurkure</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Kurkure
+1 cup boiled , peeled and mashed potatoes
+1 tsp ginger (adrak)
+1 tsp green chilli paste
+2 tbsp grated carrot
+2 tbsp finely chopped capsicum
+1/4 cup bread crumbs
+1 tbsp finely chopped coriander (dhania)
+1/2 tsp roasted cumin seeds (jeera) powder
+1 tsp chaat masala
+salt to taste
+nachos for coating
+oil for deep frying
+For Serving
+sweet and sour sauce</t>
+  </si>
+  <si>
+    <t>For aloo kurkure
+To make aloo kurkure, in a deep bowl, combine all the ingredients and mix well to form a mixture.
+Divide the mixture into 8 equal portions and shape them into round balls. Keep aside.
+In a small plate crush the nachos and coat each ball in the crushed nachos from all the sides.
+Heat the oil in a kadhai and deep-fry the potato balls a few at a time till they are golden brown in colour from all sides. Drain on absorbent paper.
+Serve aloo kurkure hot with sweet and sour sauce.</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 0.3 g
+Carbohydrates 3.1 g
+Fiber 0.5 g
+Fat 5 g
+Cholesterol 0 mg
+Sodium 2.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-kurkure-2909r</t>
+  </si>
+  <si>
+    <t>rcp30955</t>
+  </si>
+  <si>
+    <t>Aloo Lehsun Vada, Mumbai Roadside Batata Vada</t>
+  </si>
+  <si>
+    <t>Ingredients
+To Be Mixed Into A Smooth Batter (using A Whisk)
+3/4 cup besan (bengal gram flour)
+1 tbsp hot oil
+salt to taste
+1/2 cup water
+Other Ingredients For Aloo Lehsun Vada
+1 1/2 cups boiled and mashed potatoes
+2 tsp garlic (lehsun) paste
+1 tsp chilli powder
+1/2 tsp lemon juice
+salt to taste
+oil for deep-frying
+For Serving With Aloo Lehsun Vada
+sukhi lehsun chutney</t>
+  </si>
+  <si>
+    <t>For aloo lehsun vada
+To make aloo lehsun vada, combine the potatoes, garlic paste, chilli powder, lemon juice and salt in a deep bowl and mix very well.
+Divide the mixture into 20 equal portions and roll each portion into a round.
+Heat the oil in a deep non-stick pan, dip each vada in the prepared batter and deep-fry a few vadas in hot oil till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve the aloo lehsun vada immediately with sukhi lehsun chutney.</t>
+  </si>
+  <si>
+    <t>Energy 59 cal
+Protein 1.4 g
+Carbohydrates 5.3 g
+Fiber 1.1 g
+Fat 3.6 g
+Cholesterol 0 mg
+Vitamin A 38.8 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 1.3 mg
+Folic Acid 10.2 mcg
+Calcium 4.3 mg
+Iron 0.4 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.3 mg
+Potassium 62 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-lehsun-vada-mumbai-roadside-batata-vada-42225r</t>
+  </si>
+  <si>
+    <t>Aloo Masala Chaat</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Masala Chaat
+2 cups boiled and peeled potato cubes
+1 tsp chaat masala
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tbsp oil
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+1/2 cup grated tomatoes
+1/4 tsp chilli powder
+1/2 tbsp pomegranate (anardana) powder
+salt to taste
+2 tbsp water
+1 1/2 tsp lemon juice
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>For aloo masala chaat
+To make aloo masala chaat, combine the potatoes, chaat masala and coriander-cumin seeds powder in a bowl and mix lightly. Keep aside.
+Heat the oil in a broad non-stick pan, add the ginger and green chillies and sauté on a medium flame for a few seconds.
+Add the tomatoes and cook on medium flame for 2 minutes, while stirring occasionally.
+Add the chilli powder, pomegranate powder and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the potato mixture and 2 tbsp water, mix gently and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix gently.
+Serve the aloo masala chaat hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 2.1 g
+Carbohydrates 23.9 g
+Fiber 2.8 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 18.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-masala-chaat-2417r</t>
+  </si>
+  <si>
+    <t>Aloo Methi</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Methi
+1 1/2 cups boiled and peeled potato cubes
+4 cups chopped fenugreek (methi) , washed and drained
+salt to taste
+4 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1 tsp finely chopped green chillies
+2 whole dry kashmiri red chillies , broken into pieces
+1/2 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Aloo methi
+To make aloo methi, place the fenugreek leaves in a deep bowl, sprinkle a little salt over it, toss well and keep aside for 15 minutes.
+Squeeze out all the water from the fenugreek leaves and keep aside. Discard the squeezed water.
+Heat the oil in a deep non-stick pan, add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the garlic, ginger, green chillies and red chillies and sauté on a medium flame for 30 seconds.
+Add the turmeric powder and potatoes, mix gently and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the fenugreek leaves, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the aloo methi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 244 cal
+Protein 2.4 g
+Carbohydrates 12.8 g
+Fiber 4.2 g
+Fat 20.4 g
+Cholesterol 0 mg
+Sodium 33.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-22789r</t>
+  </si>
+  <si>
+    <t>Aloo Methi Parathas</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Dough
+1 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+For The Aloo Methi Stuffing
+1 1/4 cups boiled and mashed potatoes
+1 cup finely chopped fenugreek (methi) leaves
+2 tbsp oil
+1/2 tsp cumin seeds (jeera)
+2 tsp ginger-green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1 tsp chaat masala
+salt to taste
+Other Ingredients For Aloo Methi Parathas
+whole wheat flour (gehun ka atta) for rolling
+6 tsp oil for cooking
+For Serving With Aloo Methi Parathas
+fresh curd (dahi)
+pickle</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 5 equal portions and keep aside.
+For the methi aloo stuffing
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the fenugreek leaves and sauté on a medium flame for 2 minutes.
+Add the ginger-green chilli paste, turmeric powder, coriander powder, chaat masala and salt and sauté on a medium flame for a few seconds.
+Add the potatoes, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Divide the stuffing into 5 equal portions and keep aside.
+How to proceed to make aloo methi parathas
+To make aloo methi parathas, roll out one portion of the dough into a 100 mm. (4") diameter circle using a little whole wheat flour for rolling.
+Place one portion of the aloo methi stuffing in the centre of the circle, bring together all the sides in the centre and seal tightly.
+Roll out again into a 150 mm. (6") diameter circle, using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the aloo methi parathas, using 1 tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 1 to 4 to make 4 more parathas.
+Serve the aloo methi parathas hot with fresh curds or pickle.</t>
+  </si>
+  <si>
+    <t>Energy 222 cal
+Protein 3.8 g
+Carbohydrates 24.4 g
+Fiber 4.1 g
+Fat 12.6 g
+Cholesterol 0 mg
+Sodium 12 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-parathas-4776r</t>
+  </si>
+  <si>
+    <t>Aloo Methi Tikki, Indian Aloo Methi Cutlet</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Methi Tikki
+1 cup boiled , peeled and mashed potatoes
+1/2 cup finely chopped fenugreek (methi)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 tsp finely chopped ginger (adrak)
+2 tsp finely chopped green chillies
+1/4 cup finely chopped onions
+1 tbsp dried fenugreek leaves (kasuri methi)
+salt to taste
+1/2 tsp garam masala
+1 tsp dried mango powder (amchur)
+1/2 tsp turmeric powder (haldi)
+1/4 cup finely chopped coriander (dhania)
+1/2 cup plain flour (maida) dissolved in 3/4 cup
+1/2 cup bread crumbs for rolling
+oil for deep-frying
+For Serving With Aloo Methi Tikki
+green chutney</t>
+  </si>
+  <si>
+    <t>For aloo methi tikki
+To make aloo methi tikki, heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the ginger and green chiliees and sauté on a medium flame for 30 seconds.
+Add the onions and sauté on a medium flame for 1 minute.
+Add the potatoes, fenugreek leaves, dried fenugreek leaves, salt, garam masala, dry mango powder, turmeric powder and coriander, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
+Remove from the flame and allow it to cool completely.
+Once cooled, divide the mixture into 4 equal portions.
+Shape each portion into a round ball.
+Dip each round ball in the plain flour-water mixture and lightly roll them in bread crumbs in such a way that the balls are evenly coated from all the sides.
+Heat the oil in a kadhai and deep-fry the balls till they are golden brown in colour from all the sides.
+Drain on absorbent paper.
+Serve aloo methi tikki immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 193 cal
+Protein 3.7 g
+Carbohydrates 26.8 g
+Fiber 1 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 7.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-tikki-indian-aloo-methi-cutlet-32728r</t>
+  </si>
+  <si>
+    <t>Aloo Methi Tofu Parathas</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Dough
+1 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+For The Aloo Methi Tofu Stuffing
+1 cup boiled and mashed potatoes
+1 cup finely chopped fenugreek (methi) leaves
+1/2 cup grated tofu (bean curd/ soya paneer)
+2 tbsp oil
+1/2 tsp cumin seeds (jeera)
+2 tsp ginger-green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1 tsp chaat masala
+salt to taste
+Other Ingredients For Aloo Methi Tofu Parathas
+whole wheat flour (gehun ka atta) for rolling
+4 tsp oil for cooking
+For Serving With Aloo Methi Tofu Parathas
+fresh curd (dahi)
+pickle</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 4 equal portions and keep aside.
+For the aloo methi tofu stuffing
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the fenugreek leaves and sauté on a medium flame for 2 minutes.
+Add the ginger-green chilli paste, turmeric powder, coriander powder, chaat masala and salt and sauté on a medium flame for a few seconds.
+Add the potatoes and tofu, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Cool the stuffing slightly and divide it into 4 equal portions. Roll each portion in to a ball. Keep aside.
+How to proceed
+To make aloo methi tofu parathas, roll out one portion of the dough into a 100 mm. (4") diameter circle using a little whole wheat flour for rolling.
+Place one portion of the aloo methi tofu stuffing in the centre of the circle, bring together all the sides in the centre and seal tightly.
+Roll out again into a 150 mm. (6") diameter circle, using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the aloo methi parathas, using 1 tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 1 to 4 to make 3 more parathas.
+Serve aloo methi tofu parathas hot with fresh curds or pickle.</t>
+  </si>
+  <si>
+    <t>Energy 287 cal
+Protein 6.8 g
+Carbohydrates 31.8 g
+Fiber 6.6 g
+Fat 15.4 g
+Cholesterol 0 mg
+Sodium 14.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-tofu-parathas-22397r</t>
+  </si>
+  <si>
+    <t>rcp33353</t>
+  </si>
+  <si>
+    <t>Aloo Palak</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Palak
+1 1/2 cups boiled , peeled and potato cubes
+4 cups finely chopped spinach (palak)
+3 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1 tsp finely chopped green chillies
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp coriander (dhania) powder
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>For aloo palak
+To make aloo palak, heat the oil in a broad non-stick pan and add the cumin seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add the garlic, ginger, green chillies, red chillies and sauté on a medium flame for 1 minute.
+Add the potatoes, toss gently and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the spinach, coriander powder, turmeric powder and salt, mix well and cook on a medium flame 3 minutes, while stirring occasionally.
+Serve the aloo palak hot.</t>
+  </si>
+  <si>
+    <t>Energy 203 cal
+Protein 2.5 g
+Carbohydrates 13 g
+Fiber 3 g
+Fat 15.7 g
+Cholesterol 0 mg
+Sodium 58.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak-30887r</t>
+  </si>
+  <si>
+    <t>Aloo Palak ( Microwave )</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 cups finely chopped spinach (palak)
+1 1/2 cups peeled and boiled potatoes
+1 tsp cumin seeds (jeera)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+2 whole dry kashmiri red chillies
+2 tsp coriander (dhania) powder
+1/2 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+3 tbsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Heat the oil in a microwave safe bowl and microwave for 30 seconds.
+Add the cumin seeds and micorwave for 1 minute.
+Add the ginger, garlic and chillies, mix well and microwave for 30 seconds.
+Add the potatoes, mix well and microwave for 3 minutes, while stirring twice in between.
+Add the spinach,coriander powder, turmeric powder and asafoetida, mix well and cover and cook in a microwave for 3 minutes, while stirring twice in between.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 154 cal
+Protein 1.9 g
+Carbohydrates 10.1 g
+Fiber 2.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Vitamin A 3904.3 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.2 mg
+Vitamin B3 0.8 mg
+Vitamin C 25.2 mg
+Folic Acid 89.8 mcg
+Calcium 53.2 mg
+Iron 0.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 44 mg
+Potassium 229 mg
+Zinc 0.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak--microwave--22488r</t>
+  </si>
+  <si>
+    <t>Aloo Palak Paratha, Punjabi Aloo Palak Paratha</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Palak Paratha
+1 cup boiled , peeled and mashed potatoes
+1 cup finely chopped spinach (palak)
+2 cups whole wheat flour (gehun ka atta)
+1/2 cup besan (bengal gram flour)
+salt to taste
+4 tbsp fresh curd (dahi)
+1 tbsp finely chopped green chillies
+1/2 tsp turmeric powder (haldi)
+1 tbsp peanut oil
+whole wheat flour (gehun ka atta) for rolling
+12 tsp peanut oil for cooking
+For Serving With Aloo Palak Paratha
+fresh curd (dahi)
+pickle</t>
+  </si>
+  <si>
+    <t>For aloo palak paratha
+To make aloo palak paratha, combine all the ingredients in a deep bowl, mix well and knead into a soft smooth dough using enough water.
+Divide the dough into 12 equal portions.
+Roll out each portion of the dough into a 150 mm. (6”) diameter circle with the help of a little whole wheat flour.
+Heat a non-stick tava (griddle) and cook the aloo palak paratha using 1 tsp of oil , till golden brown spots appear on both the sides.
+Serve the aloo palak paratha hot with curds and pickle of your choice.</t>
+  </si>
+  <si>
+    <t>Energy 148 cal
+Protein 4.5 g
+Carbohydrates 22 g
+Fiber 4 g
+Fat 4.9 g
+Cholesterol 0.8 mg
+Sodium 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak-paratha-punjabi-aloo-palak-paratha-39146r</t>
+  </si>
+  <si>
+    <t>Aloo Palak Roti</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Palak Roti
+1 cup boiled , peeled and mashed potatoes
+1 cup finely chopped spinach (palak)
+2 cups whole wheat flour (gehun ka atta)
+1/2 cup besan (bengal gram flour)
+salt to taste
+4 tbsp fresh curd (dahi)
+1 tbsp finely chopped green chillies
+1/2 tsp turmeric powder (haldi)
+1 tbsp peanut oil
+whole wheat flour (gehun ka atta) for rolling
+12 tsp peanut oil for cooking
+For Serving With Aloo Palak Roti
+fresh curd (dahi)
+pickle</t>
+  </si>
+  <si>
+    <t>For aloo palak roti
+To make aloo palak roti, combine all the ingredients in a deep bowl, mix well and make a soft smooth dough using water.
+Divide the dough into 12 equal portions.
+Roll out each portion of the dough into a 150 mm. (6”) diameter circle with the help of a little whole wheat flour.
+Heat a non-stick tava (griddle) and cook the roti using 1 tsp of oil , till golden brown spots appear on both the sides.
+Repeat with the remaining dough to make 11 more rotis.
+Serve the aloo palak roti hot with curds and pickle of your choice.</t>
+  </si>
+  <si>
+    <t>Energy 170 cal
+Protein 4.5 g
+Carbohydrates 22 g
+Fiber 4 g
+Fat 7.4 g
+Cholesterol 0.8 mg
+Sodium 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak-roti-31045r</t>
+  </si>
+  <si>
+    <t>Aloo Paratha, Punjabi Aloo Paratha Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Aloo Paratha Dough
+2 1/4 cups whole wheat flour (gehun ka atta)
+2 tbsp melted ghee
+salt to taste
+For The Aloo Paratha Stuffing
+2 1/2 cups boiled , peeled and mashed potatoes
+2 tsp melted ghee
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tbsp finely chopped green chillies
+salt to taste
+1/2 tsp chilli powder
+2 tbsp finely chopped coriander (dhania)
+2 tsp dried mango powder (amchur)
+Other Ingredients For The Aloo Paratha
+whole wheat flour (gehun ka atta) for rolling
+12 tsp ghee for cooking
+For Serving With Aloo Paratha
+curd</t>
+  </si>
+  <si>
+    <t>For the aloo paratha dough
+Combine the whole wheat flour, ghee and salt in a bowl and mix well.
+Add enough water and knead into a semi-stiff dough. Keep aside.
+For the aloo paratha stuffing
+Heat the ghee in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the green chillies, mix well and sauté on a medium flame for 1 minute.
+Add the potatoes, salt, chilli powder, coriander, dry mango powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Divide the stuffing into 12 equal portions and keep aside.
+How to proceed to make aloo paratha
+To make aloo parathas, divide the dough into 12 equal portions and roll a portion of the dough into a circle of of 100 mm. (4”) diameter circle.
+Place a little stuffing in the centre of the circle.
+Bring together all the sides in the centre and seal tightly.
+Roll again into a circle of 150 mm. (6”) diameter circle with a little flour.
+Heat a non-stick tava (griddle) and cook the aloo paratha using 1 tsp of ghee until golden brown spots appear on both the sides.
+Repeat with the remaining dough and stuffing to make 11 more aloo parathas.
+Serve the aloo parathas immediately with fresh curds.</t>
+  </si>
+  <si>
+    <t>Energy 177 cal
+Protein 3.3 g
+Carbohydrates 22.6 g
+Fiber 3.3 g
+Fat 8.5 g
+Cholesterol 0 mg
+Sodium 7.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-paratha--punjabi-aloo-paratha-recipe-37300r</t>
+  </si>
+  <si>
+    <t>Aloo Paratha, How To Make Aloo Paratha</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Dough
+2 1/4 cups whole wheat flour (gehun ka atta)
+2 tbsp melted ghee
+salt to taste
+For The Aloo Paratha Stuffing
+2 1/2 cups boiled , peeled and mashed potatoes
+2 tsp melted ghee
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tbsp finely chopped green chillies
+salt to taste
+1/2 tsp chilli powder
+2 tbsp finely chopped coriander (dhania)
+2 tsp dried mango powder (amchur)
+Other Ingredients For Aloo Paratha
+whole wheat flour (gehun ka atta) for rolling
+ghee for cooking and greasing
+For Serving With Aloo Paratha
+curd</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine the whole wheat flour, ghee and salt in a bowl and mix well.
+Add enough water and knead into a semi-stiff dough. Keep aside.
+For the aloo paratha stuffing
+Heat the ghee in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the green chillies, mix well and sauté on a medium flame for 1 minute.
+Add the potatoes, salt, chilli powder, coriander, dry mango powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.
+Divide the stuffing into 12 equal portions and keep aside.
+How to proceed
+To make aloo paratha, divide the dough into 12 equal portions and roll a portion of the dough into a circle of of 100 mm. (4”) diameter circle.
+Place a little stuffing in the centre of the circle.
+Bring together all the sides in the centre and seal tightly.
+Roll again into a circle of 150 mm. (6”) diameter circle with a little flour.
+Heat a non-stick tava (griddle) and cook the paratha using a little ghee until golden brown spots appear on both the sides.
+Repeat with the remaining dough and stuffing to make 11 more aloo parathas.
+Serve the aloo parathas immediately with fresh curds.</t>
+  </si>
+  <si>
+    <t>Energy 222 cal
+Protein 3.4 g
+Carbohydrates 22.7 g
+Fiber 3.4 g
+Fat 13.5 g
+Cholesterol 0 mg
+Sodium 7.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-paratha-how-to-make-aloo-paratha-2172r</t>
+  </si>
+  <si>
+    <t>Aloo Poshto</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 cups potato cubes
+oil for deep-frying
+2 tbsp poppy seeds (khus-khus)
+2 tsp chopped green chillies
+1 tbsp oil
+3 whole dry kashmiri red chillies , broken into pieces
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan and deep-fry the potatoes in few batches, till they turn golden brown in colour from all the sides. Keep aside.
+Dry roast the poppy seeds in a small non-stick pan for 2 to 3 minutes.
+Combine the roasted poppy seeds and green chillies in a mixer along with ¼ cup of water and blend till smooth. Keep aside.
+Heat the oil in a broad non-stick pan, add the red chillies, poppy seeds-green chillies mixture and turmeric powder, mix well and cook on a medium flame for 1 minute, while stirring it occasionally.
+Add the fried potatoes, 1 tbsp of water and salt, toss well and cook on a medium flame for 1 to 2 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 348 cal
+Protein 1.5 g
+Carbohydrates 20.8 g
+Fiber 1.6 g
+Fat 28.8 g
+Cholesterol 0 mg
+Sodium 10.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-poshto-31040r</t>
+  </si>
+  <si>
+    <t>Aloo Poshto, Microwave Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups potato cubes
+2 tbsp poppy seeds (khus-khus)
+1 tsp roughly chopped green chillies
+4 tsp oil
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Place the poppy seeds on a microwave-proof plate, and microwave on high for 2 minutes.
+Coarsely grind in a mixer along with the green chillies till smooth. Keep aside.
+Combine the potatoes with 2 tsp of oil in a microwave safe flat plate and microwave on high for 8 minutes, while stirring once in between. Keep aside.
+Combine the remaining 2 tsp of oil, dry red chillies, turmeric powder and ground poppy seeds in a microwave-safe bowl, mix well and microwave on high for 30 seconds.
+Add the potatoes and salt, mix gently and microwave on high for 1 minute.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 179 cal
+Protein 1.5 g
+Carbohydrates 20.8 g
+Fiber 1.6 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 10.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-poshto-microwave-recipe-22499r</t>
+  </si>
+  <si>
+    <t>Aloo Posto, Bengali Aloo Posto</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Posto
+2 tbsp poppy seeds (khus-khus)
+2 tsp oil
+2 whole dry kashmiri red chillies , broken
+1/2 tsp turmeric powder (haldi)
+4 cups boiled potato cubes
+salt to taste</t>
+  </si>
+  <si>
+    <t>Heat a non-stick pan and dry roast the poppy seeds till they turn pink. Coarsely grind them in a mixer and keep aside.
+Heat the oil in the same pan, add the red chillies, turmeric powder and ground poppy seeds and sauté for a minute.
+Add the potatoes and salt and sauté for 2 to 3 more minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 112 cal
+Protein 1.5 g
+Carbohydrates 20.8 g
+Fiber 1.6 g
+Fat 2.6 g
+Cholesterol 0 mg
+Sodium 10.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-posto-bengali-aloo-posto-22364r</t>
+  </si>
+  <si>
+    <t>rcp42972</t>
+  </si>
+  <si>
+    <t>Aloo Stuffed Idli, Indian Style Potato Stuffed Idli</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Stuffed Idli
+3 cups idli batter
+oil for greasing
+For The Potato Bhaji
+1 1/2 cups boiled , peeled and mashed potatoes
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+6 curry leaves (kadi patta)
+2 tsp finely chopped green chillies
+1/2 cup finely chopped onions
+1/4 tsp of turmeric powder (haldi)
+2 tsp lemon juice
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+For Serving With Aloo Stuffed Idli
+sambhar
+coconut chutney
+tomato chutney</t>
+  </si>
+  <si>
+    <t>For the potato bhaji
+Heat the oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the curry leaves, green chillies and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the potatoes, turmeric powder, lemon juice, coriander and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally. Keep aside.
+How to proceed
+To make the aloo stuffed idli, grease the idli stand with a little oil and put 1 tbsp of the bhaji in each mould and spread it lightly.
+Pour approx. 2 tbsp of the idli batter over the bhaji in each mould.
+Steam in a steamer for 12 minutes or till the idlis are cooked.
+Repeat steps 1 to 3 to make more idlis.
+Allow the idlis to cool slightly and demould them.
+Serve the aloo stuffed idli hot with sambhar, coconut chutney and tomato chutney.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.6 g
+Carbohydrates 3.8 g
+Fiber 0.4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 1.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-stuffed-idli-indian-style-potato-stuffed-idli-1703r</t>
+  </si>
+  <si>
+    <t>Aloo Tuk, Sindhi Aloo Tuk Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Aloo Tuk
+2 1/2 cups baby potatoes
+oil for deep-frying
+To Be Mixed Together For The Masala Powder
+1 tsp dried mango powder (amchur)
+3/4 tsp chilli powder
+salt to taste
+1/4 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>35 mins</t>
+  </si>
+  <si>
+    <t>For aloo tuk
+To make aloo tuk, wash the baby potatoes very well and parboil them in enough salted water. Drain and keep aside.
+Heat the oil in a deep non-stick pan on a medium flame and deep-fry the potatoes till they turn crisp and light brown in colour. Drain on an absorbent paper and allow them to cool for a while.
+Press each deep-fried potato between the palms of your hands to flatten them and deep-fry again in the same hot oil on a medium flame till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Transfer the aloo tuk into a deep bowl, add the masala powder and toss well. Serve the aloo tuk immediately.</t>
+  </si>
+  <si>
+    <t>Energy 299 cal
+Protein 2.5 g
+Carbohydrates 34.8 g
+Fiber 2.6 g
+Fat 16.8 g
+Cholesterol 0 mg
+Sodium 16.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-tuk-sindhi-aloo-tuk-recipe-32758r</t>
+  </si>
+  <si>
+    <t>Alphonso Aamras, Aaamras Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Alphonso Aamras
+12 ripe alphonso mangoes</t>
+  </si>
+  <si>
+    <t>For alphonso aamras
+To make alphonso aamras, soak all the mangoes in enough water in a deep bowl for 30 minutes.
+Take a mango, press from evenly from all the sides till it turns soft uniformly.
+Remove the eye of the mango and squeeze it very well so as to collect the pulp in a deep bowl.
+Repeat steps 2 and 3 with the remaining 11 mangoes.
+Blend the mango pulp in a mixer till smooth.
+Serve the alphonso aamras immediately or store in an air-tight container in the freezer.</t>
+  </si>
+  <si>
+    <t>Energy 273 cal
+Protein 2.2 g
+Carbohydrates 62.4 g
+Fiber 2.6 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 96 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/alphonso-aamras-aaamras-recipe-40815r</t>
+  </si>
+  <si>
+    <t>rcp42866</t>
+  </si>
+  <si>
+    <t>Amboli, Maharashtrian Amboli</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Amboli
+2 cups rice (chawal)
+1 cup urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+10 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>For amboli
+To make amboli, clean and wash the rice. Drain, add 3 cups of water and soak the in a deep bowl overnight.
+Clean and wash urad dal. Drain, add 2 cups of water and fenugreek seeds and soak the in a deep bowl overnight.
+Next day, drain the rice and wash it once again.
+Combine the rice, salt and ½ cup of water and blend in a mixer to a smooth paste.
+Transfer the rice mixture into a bowl.
+Also drain the urad dal, wash it once again and blend in a mixer without using water.
+Add this urad dal mixture to the bowl containing rice mixture and mix well.
+Add ½ cup water and salt and mix well.
+Heat a non-stick pan and grease it with ½ tsp of oil.
+Pour a ladleful of the batter on it and spread in a circular manner to make 125 mm. (5”) diameter round.
+Cover with a lid and cook for 1 minute.
+Open the lid and spread ½ tsp of oil along the edges.
+Flip over, again cover and cook on the other side for 30 seconds.
+Repeat steps 9 to 13 to make 9 more amboli.
+Serve the amboli hot.</t>
+  </si>
+  <si>
+    <t>Energy 230 cal
+Protein 7.3 g
+Carbohydrates 37.7 g
+Fiber 3.8 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 10.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amboli-maharashtrian-amboli-42866r</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Amla Ginger Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Amla Ginger Juice
+1/2 cup deseeded and roughly chopped amla (indian gooseberries)
+1 tsp roughly chopped ginger (adrak)
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>Amla ginger juice
+To make amla ginger juice, combine the amlas and ginger along with ¼ cup of water in a mixer and blend it till smooth.
+Strain it using a strainer in a deep bowl.
+Add the salt and mix well.
+Pour it in 2 individual glasses.
+Serve the amla ginger juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 0.2 g
+Carbohydrates 4.8 g
+Fiber 1.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 389.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-ginger-juice-42361r</t>
+  </si>
+  <si>
+    <t>Amla Infused Water</t>
+  </si>
+  <si>
+    <t>Ingredients
+10 amla (indian gooseberries) wedges</t>
+  </si>
+  <si>
+    <t>Put all the amla wedges in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Energy 41 cal
+Protein 0.3 g
+Carbohydrates 9.6 g
+Fiber 2.4 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 3.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-infused-water-41842r</t>
+  </si>
+  <si>
+    <t>Amla Juice, How To Make Amla Juice, Gooseberry Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Amla Juice
+1/2 cup roughly chopped amla (indian gooseberries)
+1/2 cup water</t>
+  </si>
+  <si>
+    <t>For amla juice
+To make amla juice, combine the amlas and ½ cup of water in a mixer and blend till smooth.
+Strain using a strainer.
+Serve amla juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 0.2 g
+Carbohydrates 4.8 g
+Fiber 1.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-juice-how-to-make-amla-juice-gooseberry-juice-42324r</t>
+  </si>
+  <si>
+    <t>rcp3426</t>
+  </si>
+  <si>
+    <t>Amla Pickle, Amla Achar, Gooseberry Pickle</t>
+  </si>
+  <si>
+    <t>jain</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Amla Pickle
+10 amlas (indian gooseberries)
+1/4 cup mustard (rai / sarson) oil
+3 tsp fennel seeds (saunf)
+1 tsp nigella seeds (kalonji)
+3 tsp split fenugreek seeds (methi na kuria)
+1 1/2 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+2 tsp salt</t>
+  </si>
+  <si>
+    <t>For amla pickle
+To make amla pickle, combine the amlas in enough water in a deep non-stick pan and cook on a medium flame for 6 minutes, while stirring it occasionally.
+Drain the water and cool completely.
+Cut the amlas into wedges and discard the seeds.
+Heat the oil in a small non-stick pan on a medium flame for 2 minutes or till it is smoky, switch off the flame and allow it cool slightly.
+Combine the nigella seeds and fennel seeds in a mortar and pestle, and crush it till coarse.
+Combine the coarse mixture, fenugreek seeds, chilli powder, turmeric powder, asafetida, mustard oil and salt and mix well.
+Add the amla wedges to the mustard oil mixture, mix well and keep aside for 2 hours.
+Serve the amla pickle immediately or store it in an air-tight container and keep it refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.1 g
+Carbohydrates 1.7 g
+Fiber 0.4 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 194.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-pickle-amla-achar-gooseberry-pickle-3437r</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>rcp8697</t>
+  </si>
+  <si>
+    <t>Anti- Cancer and Anti- Inflammation Spinach Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Anti Cancer Anti Inflammation Spinach Juice
+2 cups roughly chopped spinach (palak)
+3/4 cup roughly chopped tomatoes
+1 tsp apple cider vinegar</t>
+  </si>
+  <si>
+    <t>For anti cancer anti inflammation spinach juice
+To make anti cancer anti inflammation spinach juice, in a mixer put spinach, tomatoes and apple cider vinegar or lemon juice.
+If using an ordinary mixer just add 1½ cups of chilled water and blend it till smooth. If using a high end mixer add 1 cup chilled water and 20 ice-cubes and blend it till smooth.
+When using an ordinary mixer, make sure you blend it really well, as when we blended for approx. 2 minutes, there were still pieces of tomatoes. So we had to blend it for another 2 minutes.
+Also see that, you give a break while you are blending , or else the mixer will get hot.
+Pour the juice in 3 individual glasses.
+Serve anti cancer anti inflammation spinach juice immediately or chilled.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 1.3 g
+Carbohydrates 2.7 g
+Fiber 1.8 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 31.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--cancer-and-anti--inflammation-spinach-juice-42166r</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Antioxidant Boost ( Eat Well Stay Well Recipes )</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 medium sized apples , roughly chopped
+2 cups of black grapes
+1 cup fresh strawberries
+1/2 cup chopped beetroot
+1 cup crushed ice</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients together and blend in a mixer till smooth.
+Strain the juice using a strainer and pour into 4 individual glasses.
+Serve immediately.
+Handy tip
+Use fresh and ripe strawberries to avoid the use of sigar in this juice.
+When kiwis are in season, replace strawberries with 1 cup of chopped kiwis and enjoy an equally good vitamin c boost drink.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 0.9 g
+Carbohydrates 33.9 g
+Fiber 8.2 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 64.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/antioxidant-boost--eat-well-stay-well-recipes--33480r</t>
+  </si>
+  <si>
+    <t>rcp32844</t>
+  </si>
+  <si>
+    <t>Apple and Carrot Soup with Potatoes ( Baby and Toddler )</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Apple and Carrot Soup With Potatoes
+1/4 cup peeled and chopped apple
+2 tbsp peeled and chopped carrot
+1/4 cup peeled and chopped potatoes
+1 tsp oil
+1 tbsp finely chopped onions</t>
+  </si>
+  <si>
+    <t>For apple and carrot soup with potatoes
+Heat the oil in a pressure cooker, add the onions and sauté on a medium flame for 30 seconds.
+Add the carrot, potatoes, apple and 1 cup of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer to a smooth purée.
+Pour the purée into a broad non-stick pan and bring to boil, while stirring occasionally.
+Serve the apple and carrot soup with potatoes for babies and toddlers lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 1.2 g
+Carbohydrates 18.8 g
+Fiber 3 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 23.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-carrot-soup-with-potatoes---baby-and-toddler--3055r</t>
+  </si>
+  <si>
+    <t>Apple and Date Smoothie, Smoothie with Curds</t>
+  </si>
+  <si>
+    <t>Ingredients
+Apple and Date Smoothie
+2 cups chilled , peeled and roughly chopped apple
+8 chopped black seedless dates
+3/4 cup chilled whisked curds (dahi)
+1/2 cup ice-cubes</t>
+  </si>
+  <si>
+    <t>For apple and date smoothie
+To make apple and date smoothie, combine the apples, dates, curds and ice-cubes and blend in a juicer till the mixture is smooth and frothy.
+Pour equal quantities of the smoothie into 2 individual glasses.
+Serve the apple and date smoothie immediately.</t>
+  </si>
+  <si>
+    <t>Energy 185 cal
+Protein 3.7 g
+Carbohydrates 26.1 g
+Fiber 5.3 g
+Fat 5.5 g
+Cholesterol 12 mg
+Sodium 46.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-date-smoothie-smoothie-with-curds-36257r</t>
+  </si>
+  <si>
+    <t>Amla, Coriander and Spinach Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Amla , Coriander and Spinach Juice
+1 cup spinach (palak) , roughly chopped
+1/4 cup chopped coriander (dhania)
+1 big cucumber , cut into slices
+1 chopped amla (indian gooseberries)</t>
+  </si>
+  <si>
+    <t>For amla, coriander and spinach juice
+To make amla, coriander and spinach juice, combine all the ingredients along with 3 cups of water in a blender and blend till smooth. We suggest you use a good quality blender as that will make the amla blend easily and uniformly. This will also avoid straining.
+Serve the amla, coriander and spinach juice immediately or chilled. This lasts good for 4 to 6 hours in the refrigerator.</t>
+  </si>
+  <si>
+    <t>Energy 17 cal
+Protein 0.5 g
+Carbohydrates 3.3 g
+Fiber 1.3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 11.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-coriander-and-spinach-juice-42814r</t>
+  </si>
+  <si>
+    <t>rcp2605</t>
+  </si>
+  <si>
+    <t>Apple Cinnamon Smoothie, Dates Appple Oats Smoothie</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Apple Cinnamon Smoothie
+1 1/2 cups roughly chopped apple
+cinnamon (dalchini) powder to taste
+1 cup greek yoghurt or curd (dahi)
+1/4 cup quick cooking rolled oats
+1 tbsp chopped dates (khajur)
+1/4 tsp vanilla extract or vanilla essence
+1 tsp chia seeds
+1 tsp garden cress seeds
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>For apple cinnamon smoothie
+To make apple cinnamon smoothie, in a mixer put chopped apples, cinnamon powder, greek yoghurt or curd, quick cooking rolled oats, chopped dates, vanilla extract, chia seeds, halim ( garden cress) seeds and ice cubes.
+Blend till frothy.
+Pour equal quantities of the smoothie into 3 glasses.
+Serve apple cinnamon smoothie immediately.</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 7.2 g
+Carbohydrates 18.9 g
+Fiber 3.4 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 53 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cinnamon-smoothie-dates-appple-oats-smoothie-42236r</t>
+  </si>
+  <si>
+    <t>Apple Cucumber Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Apple Cucumber Juice
+3 cups chilled and roughly chopped apple
+3 cups chilled and roughly chopped cucumber
+1/2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>For apple cucumber juice
+To make apple cucumber juice, add the apples and cucumber a few at a time in a hopper.
+Add lemon juice to the juice and mix well.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve the apple cucumber juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 64 cal
+Protein 0.6 g
+Carbohydrates 14.1 g
+Fiber 5.2 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 33.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cucumber-juice-39019r</t>
+  </si>
+  <si>
+    <t>Apple Cucumber Parsley Infused Water</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 apple cubes (unpeeled and deseeded)
+4 thick cucumber slices (peeled)
+2 sprigs parsley</t>
+  </si>
+  <si>
+    <t>Put 2 apple cubes, a sprig of parsley, 2 cucumber slices and the remaining 2 apple cubes, a sprig of parsley and 2 cucumber slices in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Energy 4 cal
+Protein 0.1 g
+Carbohydrates 0.8 g
+Fiber 0.8 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cucumber-parsley-infused-water-41821r</t>
+  </si>
+  <si>
+    <t>rcp42200</t>
+  </si>
+  <si>
+    <t>Apple Juice Recipe, Homemade Healthy Apple Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Apple Juice
+2 cups chopped apple
+1 tsp chopped ginger (adrak)
+1 tbsp lemon juice
+1/2 cup water
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>For apple juice
+To make apple juice, in a mixer combine chopped apple, ginger (adrak), lemon juice, 1/2 cup of water and ice cubes and blend well till smooth and frothy.
+Serve the apple juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 77 cal
+Protein 0.4 g
+Carbohydrates 17.2 g
+Fiber 4 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 32.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-juice-recipe-homemade-healthy-apple-juice-43085r</t>
+  </si>
+  <si>
+    <t>Apple Magic, Lemony Apple Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+Juicer Method
+3 cups apple cubes
+2 tsp lemon juice
+crushed ice for serving , optional</t>
+  </si>
+  <si>
+    <t>Juicer method
+Add the apple cubes a few at a time in the juicer.
+Add the lemon juice and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve the lemony apple juice immediately.
+Mixer method
+This recipe doesn’t turn out good in a mixer because the texture of ingredients like apple is very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 108 cal
+Protein 0.4 g
+Carbohydrates 24.4 g
+Fiber 5.7 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 48.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
+  </si>
+  <si>
+    <t>Apple Slices with Vanilla Cream ( Low Calorie Healthy Cooking)</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 apples
+1 cup vanilla cream</t>
+  </si>
+  <si>
+    <t>Core out the centres of the apples and then cut into round slices.
+Steam the apple slices until soft.
+Arrange the apple slices on a plate and pour the vanilla cream on top. Place in the refrigerator.
+Serve cold.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 1.4 g
+Carbohydrates 20.6 g
+Fiber 4.5 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 55.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-slices-with-vanilla-cream--low-calorie-healthy-cooking-1414r</t>
+  </si>
+  <si>
+    <t>Apple Smoothie ( Burgers and Smoothie Recipe)</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/2 cups chilled , peeled and roughly chopped apples
+5 tbsp strawberry crush
+4 tbsp chilled fresh curds (dahi)
+1 cup vanilla ice-cream
+For The Topping
+4 tbsp crushed ice</t>
+  </si>
+  <si>
+    <t>Combine the curds, strawberry crush, vanilla ice-cream and apples and blend in a juicer till the mixture is smooth and frothy.
+Pour equal quantities of the smoothie into 2 individual glasses.
+Serve immediately topped with 2 tbsp of crushed ice in each glass.</t>
+  </si>
+  <si>
+    <t>Energy 354 cal
+Protein 4.1 g
+Carbohydrates 65.5 g
+Fiber 2.8 g
+Fat 7.9 g
+Cholesterol 4.8 mg
+Sodium 30.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-smoothie--burgers-and-smoothie-recipe-36264r</t>
+  </si>
+  <si>
+    <t>Apple Stew for Babies</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Apple Stew For Babies
+3/4 cup peeled and roughly chopped apple</t>
+  </si>
+  <si>
+    <t>For apple stew for babies
+To make apple stew for babies, combine the apples and ½ cup of water in a deep non-stick pan, mix well and cook on a medium flame for 8 minutes, while stirring occasionally.
+Cool slightly and blend in a mixer along with 2 tbsp of warm water till smooth.
+Serve the apple stew for babies immediately.</t>
+  </si>
+  <si>
+    <t>Energy 51 cal
+Protein 0.2 g
+Carbohydrates 11.7 g
+Fiber 2.8 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 24.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-stew-for-babies-40469r</t>
+  </si>
+  <si>
+    <t>rcp40319</t>
+  </si>
+  <si>
+    <t>Apple Sticks ( Tiffin Recipe)</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup apple sticks
+1/2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well.
+How to pack
+Pack in an air-tight tiffin box.</t>
+  </si>
+  <si>
+    <t>Energy 70 cal
+Protein 0.3 g
+Carbohydrates 15.8 g
+Fiber 3.7 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 32 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-sticks--tiffin-recipe-40319r</t>
+  </si>
+  <si>
+    <t>rcp40925</t>
+  </si>
+  <si>
+    <t>Avocado and Tomato Salad, Healthy and Quick Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/2 cups sliced avocados
+1 cup deseeded and sliced tomatoes
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1/2 tsp mustard (rai / sarson) powder
+1 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with the dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 269 cal
+Protein 2.1 g
+Carbohydrates 3.3 g
+Fiber 1.1 g
+Fat 27.5 g
+Cholesterol 0 mg
+Sodium 7.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-tomato-salad-healthy-and-quick-salad-41364r</t>
+  </si>
+  <si>
+    <t>Avocado Chocolate Mousse</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Avocado Chocolate Mousse
+1 cup roughly chopped dark chocolate
+3/4 cup roughly chopped riped avocado
+For The Garnish
+white chocolate curls</t>
+  </si>
+  <si>
+    <t>For avocado chocolate mousse
+To make avocado chocolate mousse, blend the avocado in a mixer till smooth. Keep aside.
+Combine the chocolate in a microwave safe bowl and microwave on high for 1 minute. Mix well.
+Combine the avocado mixture and ¼ cup of melted chocolate in a bowl and mix well using a spatula.
+Add the remaining chocolate and mix very well using a spatula.
+Pour equal quantities of the mixture into 2 individual bowls / glasses and refrigerate for 1 hour or till the mousse sets.
+Garnish with chocolate curls.
+Serve the avocado chocolate mousse chilled.</t>
+  </si>
+  <si>
+    <t>Energy 492 cal
+Protein 8.8 g
+Carbohydrates 24.1 g
+Fiber 0 g
+Fat 52.4 g
+Cholesterol 0 mg
+Sodium 2.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-chocolate-mousse-40811r</t>
   </si>
 </sst>
 </file>
@@ -860,18 +2716,1844 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="L45" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="L46" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="L48" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -906,290 +4588,1935 @@
         <v>8</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="G6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>20</v>
-      </c>
       <c r="H6" t="s" s="0">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s" s="0">
+      <c r="F9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I10" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="K9" t="s" s="0">
-        <v>95</v>
+      <c r="G13" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Scraping23/src/test/resources/excelsheets/Recipes.xlsx
+++ b/Scraping23/src/test/resources/excelsheets/Recipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="720">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -2472,6 +2472,2616 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/avocado-chocolate-mousse-40811r</t>
+  </si>
+  <si>
+    <t>rcp1481</t>
+  </si>
+  <si>
+    <t>Cabbage and Spinach Salad, Healthy Carrot Spinach Salad</t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage and Spinach Salad
+1/2 cup shredded red cabbage
+1/2 cup shredded cabbage
+1/2 cup shredded spinach (palak)
+1/2 cup thickly grated carrot
+2 tbsp chopped walnuts (akhrot)
+To Be Mixed Together Into Garlicky Dressing
+1 tbsp finely chopped garlic (lehsun)
+2 tsp lemon juice
+1/4 tsp mustard (rai / sarson) powder
+salt and to taste</t>
+  </si>
+  <si>
+    <t>For cabbage and spinach salad
+To make cabbage and spinach salad, combine all the ingredients along with the garlicky dressing in a deep bowl and toss well.
+Serve the cabbage and spinach salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.5 g
+Carbohydrates 4.9 g
+Fiber 2 g
+Fat 6.6 g
+Cholesterol 0 mg
+Sodium 16.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-and-spinach-salad-healthy-carrot-spinach-salad-40486r</t>
+  </si>
+  <si>
+    <t>Cabbage Capsicum Sabzi, Healthy Simla Mirch Gobi Sabzi</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage and Capsicum Subzi
+2 cups shredded cabbage
+1/2 cup sliced capsicum
+1 tsp oil
+1/4 tsp mustard seeds ( rai / sarson)
+a pinch of asafoetida (hing)
+a pinch of turmeric powder (haldi)
+1 tsp finely chopped green chillies
+salt to taste
+1/2 tsp coriander (dhania) powder
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>For cabbage and capsicum subzi
+To make cabbage and capsicum subzi, heat the oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida, turmeric powder, green chillies and sauté on a medium flame for a few seconds.
+Add the cabbage, capsicum and salt, 1 tbsp of water, mix well and cook on medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the coriander seeds powder and lemon juice, mix well and cook on a slow flame for 1 more minute, while stirring occasionally.
+Serve the cabbage and capsicum subzi immediately.</t>
+  </si>
+  <si>
+    <t>Energy 29 cal
+Protein 1 g
+Carbohydrates 3.1 g
+Fiber 1.6 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 7.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-capsicum-sabzi-healthy-simla-mirch-gobi-sabzi-35934r</t>
+  </si>
+  <si>
+    <t>Cabbage Dhokla, Patta Gobi Dhokla</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Dhokla
+1 cup besan (bengal gram flour)
+1 cup finely chopped cabbage
+1/2 cup curd (dahi)
+1 tsp chilli powder
+2 pinches of asafoetida (hing)
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1 tsp fruit salt
+oil for greasing
+1 1/2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+5 to 6 curry leaves (kadi patta)
+1 tsp sesame seeds (til)
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For cabbage dhokla
+To make cabbage dhokla, combine the besan, cabbage, curds, chilli powder, a pinch of asafoetida, coriander-cumin seeds powder, turmeric powder and salt with approx. ½ cup of water in a deep bowl and mix very well to form a batter of dropping consistency.
+Just before steaming, add the fruit salt to the batter and sprinkle 2 tsp of water over it.
+When the bubbles form, mix gently.
+Pour the batter into a greased 175 mm. (7”) diameter thali and steam in a steamer for 10 minutes. Keep aside to cool slightly.
+Heat the oil in small non-stick pan and add the mustard seeds, curry leaves and another pinch of asafoetida.
+When the seeds crackle, add the sesame seeds and mix well.
+Pour this tempering over the dhoklas.
+Cut into equal sized square pieces.
+Serve the cabbage dhokla immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 48 cal
+Protein 2.3 g
+Carbohydrates 5.8 g
+Fiber 1.5 g
+Fat 1.8 g
+Cholesterol 1.3 mg
+Sodium 9.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-dhokla-patta-gobi-dhokla-40379r</t>
+  </si>
+  <si>
+    <t>Cabbage Jowar Muthias</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Jowar Muthias
+1 cup grated cabbage
+1 cup jowar (white millet) flour
+1/4 cup low fat curds (dahi)
+1 tbsp chopped coriander (dhania)
+1/2 tbsp lemon juice
+1 tsp ginger-green chilli paste
+1 tsp garlic (lehsun) paste
+1/2 tsp turmeric powder (haldi)
+1/2 tsp asafoetida (hing)
+salt to taste
+1 tsp oil
+1 tsp cumin seeds (jeera)
+3 to 4 curry leaves (kadi patta)
+For The Garnish
+1 tbsp finely chopped coriander (dhania)
+For Serving With Cabbage Jowar Muthias
+green chutney</t>
+  </si>
+  <si>
+    <t>29 mins</t>
+  </si>
+  <si>
+    <t>For cabbage jowar muthias
+To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water.
+Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll.
+Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely.
+Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside.
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds.
+Add the sliced muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally.
+Garnish the cabbage jowar muthias with coriander and serve hot with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 146 cal
+Protein 4.6 g
+Carbohydrates 26.4 g
+Fiber 4.1 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 16.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-muthias-3554r</t>
+  </si>
+  <si>
+    <t>Cabbage Jowar Paratha ( Gluten Free Recipe)</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/2 cup finely chopped cabbage
+1 cup jowar (white millet) flour
+2 tsp oil
+1 tsp green chilli paste
+1 tsp garlic (lehsun) paste
+2 tbsp finely chopped coriander (dhania)
+oil for greasing and cooking
+jowar (white millet) flour for rolling
+For Serving
+fresh curd</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into semi-soft dough using enough warm water.
+Divide the dough into 6 equal portions and roll out each portion into a circle of 125 mm (5”) diameter, using a little jowar flour for rolling.
+Heat a non-stick tava (griddle) and cook each paratha, using a little oil, till it turns golden brown in colour from both sides.
+Serve immediately with fresh curds.</t>
+  </si>
+  <si>
+    <t>Energy 97 cal
+Protein 1.9 g
+Carbohydrates 12.3 g
+Fiber 1.8 g
+Fat 4.5 g
+Cholesterol 0 mg
+Sodium 3.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-paratha----gluten-free-recipe-38606r</t>
+  </si>
+  <si>
+    <t>rcp35936</t>
+  </si>
+  <si>
+    <t>Cabbage Moong Dal Khichdi for Babies and Toddlers</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Moong Dal Khichdi For Babies and Toddlers
+1/4 cup finely chopped cabbage
+2 tbsp green moong dal (split green gram) , washed and drained
+2 tbsp rice (chawal) , washed and drained
+1/2 tsp ghee
+1/4 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+a pinch of turmeric powder (haldi)
+restricted quantity of salt</t>
+  </si>
+  <si>
+    <t>For cabbage moong dal khichdi
+To make cabbage moong dal khichdi for babies and toddlers, combine the rice, moong dal and 1 cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Heat the ghee in a broad non-stick pan and add the cumin seeds.
+When the cumin seeds crackle, add the asafoetida and sauté on a medium flame for 5 seconds.
+Add the cabbage and sauté on a medium flame for 2 to 3 minutes or till the cabbage turns soft.
+Add the cooked dal-rice mixture, turmeric powder and salt, mix well and cook on a medium flame for 1 minute.
+Cool the cabbage moong dal khichdi for babies and toddlers slightly and serve lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 211 cal
+Protein 9 g
+Carbohydrates 38.1 g
+Fiber 3 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 13.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-moong-dal-khichdi-for-babies-and-toddlers-3082r</t>
+  </si>
+  <si>
+    <t>Cabbage Pakoda, Cabbage Pakora</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Pakoda
+2 cups thinly shredded cabbage
+5 tbsp besan (bengal gram flour)
+1/4 cup finely chopped coriander (dhania)
+1/4 tsp turmeric powder (haldi)
+1 1/2 tsp chilli powder
+salt to taste
+oil for deep-frying
+For Serving With Cabbage Pakoda
+green chutney
+tomato ketchup</t>
+  </si>
+  <si>
+    <t>For cabbage pakoda
+To make cabbage pakoda, combine all the ingredients along with approx. 2 tbsp of water in a deep bowl and mix well.
+Drop spoonfuls of the mixture into hot oil in a deep non-stick pan and deep-fry a few at a time on a medium flame, till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve the cabbage pakoda immediately with green chutney and tomato ketchup.</t>
+  </si>
+  <si>
+    <t>Energy 137 cal
+Protein 4.2 g
+Carbohydrates 11.4 g
+Fiber 4.3 g
+Fat 8.3 g
+Cholesterol 0 mg
+Sodium 25.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-pakoda-cabbage-pakora-41124r</t>
+  </si>
+  <si>
+    <t>Cabbage Poriyal</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups shredded cabbage
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp urad dal (split black lentils)
+1 green chilli , slit
+2 whole dry kashmiri red chillies , broken into pieces
+8 to 10 curry leaves (kadi patta)
+a pinch of turmeric powder (haldi)
+2 tsp oil
+salt to taste
+For The Garnish
+2 tbsp grated coconut</t>
+  </si>
+  <si>
+    <t>Heat the oil, add the mustard seeds and urad dal.
+When the seeds crackle, add the green chillies dry red chillies, curry leaves and turmeric powder and sauté for few seconds.
+Add the cabbage, salt, ¼ cup of water and cook over a medium flame for 6 to 7 minutes or till the cabbage is tender, while stirring occasionally.
+Serve hot garnished with coconut.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 1.7 g
+Carbohydrates 4.4 g
+Fiber 2.4 g
+Fat 5.1 g
+Cholesterol 0 mg
+Sodium 15.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-poriyal-4366r</t>
+  </si>
+  <si>
+    <t>Cabbage Pulao</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Pulao
+1 1/2 cups shredded cabbage
+1 1/2 cups soaked and cooked brown rice
+2 tsp coconut oil or oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp urad dal (split black lentils)
+4 to 5 curry leaves (kadi patta)
+2 tbsp raw peanuts
+a pinch of asafoetida (hing)
+1/4 cup finely chopped onions
+1/4 cup carrot juliennes
+1/2 cup soaked and parboiled chana dal (split bengal gram)
+1/4 tsp turmeric powder (haldi)
+1 tsp red chilli powder
+1/2 tsp garam masala
+2 tbsp grated coconut
+1/2 tsp lemon juice
+1 tbsp chopped coriander (dhania)
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For cabbage pulao
+To make cabbage pulao, heat the oil in a broad non-stick pan, add the mustard seeds, urad dal and cook for a few seconds.
+Add the curry leaves , peanuts and sauté on a medium flame for 1 to 2 minutes.
+Add asafoetida, onions and sauté on a medium flame for 1 minute.
+Add the cabbage, carrots, chana dal, haldi, chilli powder, garam masala, salt and sauté on a medium flame for 2 to 3 minutes.
+Add the brown rice, grated coconut, lemon juice, coriander and mix well.
+Cook on a medium flame for 1 minute, while stirring occasionally.
+Serve cabbage pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 218 cal
+Protein 6.6 g
+Carbohydrates 28.2 g
+Fiber 4.9 g
+Fat 9 g
+Cholesterol 0 mg
+Sodium 19.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-pulao-5585r</t>
+  </si>
+  <si>
+    <t>rcp1395</t>
+  </si>
+  <si>
+    <t>Cabbage Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Salad
+2 cups shredded cabbage
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+To Be Mixed Into A Dressing For Cabbage Salad
+1 1/2 tsp lemon juice
+1 tsp olive oil
+3/4 tsp coriander (dhania) powder
+1/4 tsp chilli powder
+1/4 tsp asafoetida (hing)
+1/4 tsp black salt (sanchal)
+salt to taste</t>
+  </si>
+  <si>
+    <t>For cabbage salad
+To make cabbage salad,combine all the ingredients along with the dressing in a deep bowl and toss well.
+Serve the cabbage salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 58 cal
+Protein 1.7 g
+Carbohydrates 6.6 g
+Fiber 2.7 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 16.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-salad-35935r</t>
+  </si>
+  <si>
+    <t>Cabbage Stir Fry, Patta Gobi Stir Fry</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Stir Fry
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+2 slit green chillies
+3 cups shredded cabbage
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tbsp freshly grated coconut
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For cabbage stir fry
+To make cabbage stir fry, heat the oil in a broad non-stick pan, add the cumin seeds and sauté on a medium flame for 30 seconds.
+Add the green chillies and sauté on a medium flame for 30 seconds.
+Add the cabbage, turmeric powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the coconut, coriander and 2 tbsp of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the cabbage stir fry immediately.</t>
+  </si>
+  <si>
+    <t>Energy 109 cal
+Protein 1.4 g
+Carbohydrates 3.6 g
+Fiber 2.5 g
+Fat 9.9 g
+Cholesterol 0 mg
+Sodium 13 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-stir-fry-patta-gobi-stir-fry-38898r</t>
+  </si>
+  <si>
+    <t>Cabbage Thoren</t>
+  </si>
+  <si>
+    <t>Ingredients
+3 cups finely shredded cabbage
+1 1/2 tsp oil
+1 tbsp urad dal (split black lentils)
+3/4 cup finely chopped onions
+2 tsp finely chopped green chillies
+6 curry leaves (kadi patta)
+2 tbsp grated coconut
+salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a kadhai, add the urad dal and sauté on a medium flame for 1 to 2 minutes or till they turn golden brown in colour.
+Add the onions, green chillies and curry leaves and sauté on a medium flame for 2 minutes, while stirring occasionally.
+Add the coconut and sauté on a medium flame for 1 minute.
+Add the cabbage and salt, mix well and cook on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 82 cal
+Protein 2.4 g
+Carbohydrates 8.1 g
+Fiber 3 g
+Fat 4.4 g
+Cholesterol 0 mg
+Sodium 14.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-thoren-38907r</t>
+  </si>
+  <si>
+    <t>Cabbage Vada</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage Vada
+1 cup chana dal (split bengal gram)
+6 green chillies , roughly chopped
+1 cup finely chopped cabbage
+1/2 cup finely chopped carrot
+1/4 cup finely chopped onions
+1/4 cup finely chopped coriander (dhania)
+1/4 cup besan (bengal gram flour)
+salt to taste
+oil for deep-frying
+For Serving With Cabbage Vada
+green chutney</t>
+  </si>
+  <si>
+    <t>For cabbage vada
+To make cabbage vada, soak the chana dal overnight.
+Next day, drain and keep ½ cup of the chana dal aside.
+Combine the remaining chana dal with green chillies and blend in a mixer to a coarse mixture.
+Transfer the mixture into a bowl, add all the remaining ingredients (including the remaining chana dal) and mix well.
+Divide the mixture into 20 equal portions and shape each portion into a 50 mm. (2”) diameter thick, lightly flattened round vada.
+Heat the oil in a kadhai and deep-fry 3 to 4 cabbage vadas at a time, till they turn golden brown in colour from both the sides. Drain on absorbent paper.
+Serve the cabbage vadas immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 2.6 g
+Carbohydrates 8 g
+Fiber 2.2 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 11.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-vada-1509r</t>
+  </si>
+  <si>
+    <t>Cabbage, Carrot and Lettuce Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cabbage , Carrot and Lettuce Salad
+1 cup shredded cabbage
+1 cup coarsely grated carrot
+1/2 cup shredded lettuce
+1/2 cup orange segments
+1/4 cup chopped coriander (dhania)
+1/2 tsp black salt (sanchal)
+salt to taste</t>
+  </si>
+  <si>
+    <t>For cabbage, carrot and lettuce salad
+To make cabbage, carrot and lettuce salad, combine all the ingredients together in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 29 cal
+Protein 1 g
+Carbohydrates 6 g
+Fiber 1.9 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 19.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-carrot-and-lettuce-salad-7442r</t>
+  </si>
+  <si>
+    <t>rcp2495</t>
+  </si>
+  <si>
+    <t>Calcium Rich Carrot Spinach and Tomato Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Spinach and Tomato Juice
+1 1/4 cups carrot cubes
+1 1/2 cups roughly chopped spinach (palak)
+1/4 cup tomato cubes
+10 ice-cubes</t>
+  </si>
+  <si>
+    <t>For carrot spinach and tomato juice
+To make carrot spinach and tomato juice, combine the all the ingredients along with ½ cup of water and blend in a juicer till smooth.
+Serve the carrot spinach and tomato juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 33 cal
+Protein 1.5 g
+Carbohydrates 5.7 g
+Fiber 3.1 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 44.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/calcium-rich-carrot-spinach-and-tomato-juice-6230r</t>
+  </si>
+  <si>
+    <t>Capsicum Chutney, Bell Pepper Chutney</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Capsicum Chutney
+1 cup chopped capsicum
+4 tsp sesame (til) oil
+1 tsp urad dal (split black lentils)
+1 tsp chana dal (split bengal gram)
+1/2 tbsp sesame seeds (til)
+2 whole dry kashmiri red chillies , broken into pieces
+10 curry leaves (kadi patta)
+a pinch of asafoetida (hing)
+salt to taste
+1/4 cup grated fresh coconut
+1/2 tsp tamarind (imli)
+1/2 tsp mustard seeds ( rai / sarson)
+For Serving With Capsicum Chutney
+idlis
+dosas
+steamed rice</t>
+  </si>
+  <si>
+    <t>For capsicum chutney
+To make capsicum chutney, heat 2 tsp of sesame oil in a broad non-stick pan add the urad dal and chana dal and sauté on a medium flame for 1 minute.
+Add the sesame seeds, dry red chillies, 5 curry leaves, asafoetida and sauté on a medium flame for 1 to 2 minutes.
+Add the capsicum and salt and sauté on a medium flame for 4 to 5 minutes.
+Add the coconut and tamarind and sauté on a medium flame for 1 minute.
+Cool the mixture and blend it into smooth paste using 2 tbsp water. Keep aside.
+Heat the remaining 2 tsp of sesame oil in a small non-stick pan, add the mustard seeds and the remaining 5 curry leaves and sauté on a medium flame for few seconds.
+Pour the tempering evenly over it and mix well.
+Serve the capsicum chutney with idlis, dosas or steamed rice.</t>
+  </si>
+  <si>
+    <t>Energy 35 cal
+Protein 0.5 g
+Carbohydrates 1.4 g
+Fiber 0.7 g
+Fat 3 g
+Cholesterol 0 mg
+Sodium 1.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/capsicum-chutney-bell-pepper-chutney-42364r</t>
+  </si>
+  <si>
+    <t>rcp33366</t>
+  </si>
+  <si>
+    <t>Capsicum Poriyal / Capsicum Subzi</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 1/2 cups capsicum cubes
+2 tbsp sour curds (khatta dahi)
+1 tbsp coconut oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+5 to 6 curry leaves (kadi patta)
+salt to taste
+2 tbsp grated coconut</t>
+  </si>
+  <si>
+    <t>Combine the capsicum and sour curds in a deep bowl, mix well and keep aside.
+Heat the coconut oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the cumin seeds, asafoetida and curry leaves and sauté on a medium flame for a few seconds.
+Add the capsicum-curds mixture, salt and 1 tbsp of water and mix well. Cover with a lid and cook on a medium flame for 5 minutes, while stirring occasionally.
+Remove from the flame, add the coconut and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 116 cal
+Protein 2.2 g
+Carbohydrates 6.3 g
+Fiber 3.5 g
+Fat 9 g
+Cholesterol 0 mg
+Vitamin A 544.9 mcg
+Vitamin B1 0.6 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.2 mg
+Vitamin C 155.4 mg
+Folic Acid 1.5 mcg
+Calcium 33.1 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1.9 mg
+Potassium 9 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/capsicum-poriyal--capsicum-subzi-32854r</t>
+  </si>
+  <si>
+    <t>rcp39050</t>
+  </si>
+  <si>
+    <t>Cardamom Orange Cake</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 (75 mm. (7") diameter) eggless vanilla sponge cake
+1/2 tsp cardamoms (elaichi powder)
+2 tbsp orange squash
+1/4 cup orange segments
+3/4 cup kesar shrikhand
+1 1/2 cups beaten whipped cream
+To Be Mixed Into A Soaking Syrup
+3 tbsp water
+1 tbsp orange squash
+1 tsp brandy / rum (optional)
+For The Garnish
+2 tbsp beaten whipped cream
+1/2 cup orange segments</t>
+  </si>
+  <si>
+    <t>Combine the kesar shrikhand, orange squash and cardamom powder in a bowl and mix well.
+Add the beaten whipped cream and orange segments and fold gently. Keep aside.
+Slice the vanilla sponge cake horizontally into 2 equal layers. We would need only the lower layer of the cake.
+Place the bottom layer of the vanilla sponge cake on a turntable or serving plate and sprinkle the soaking syrup evenly over it. Keep aside.
+Spread the shrikhand-whipped cream mixture evenly over it.
+Garnish with swirls of beaten whipped cream and orange segments and refrigerate for 1 hour or till it sets.
+Cut the cake into 6 equal wedges and serve chilled.
+Handy tip:
+The top layer of the cake remaining at step 3 can be used to make other desserts like chocolaty balls.</t>
+  </si>
+  <si>
+    <t>Energy 641 cal
+Protein 7.5 g
+Carbohydrates 85.8 g
+Fiber 0.2 g
+Fat 28.3 g
+Cholesterol 60.2 mg
+Sodium 198.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cardamom-orange-cake-4720r</t>
+  </si>
+  <si>
+    <t>Carrot Garlic Chutney</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Garlic Chutney
+1 cup thickly grated carrot
+2 tbsp chopped garlic (lehsun)
+2 tbsp chilli powder
+1/4 tsp lemon juice
+1 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>For carrot garlic chutney
+To make carrot garlic chutney, grind the garlic, chilli powder, lemon juice and salt along with ¼ cup of water in a blender.
+Pour into a bowl, add the carrots and oil and mix well.
+Store the carrot garlic chutney refrigerated in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 7 cal
+Protein 0.1 g
+Carbohydrates 0.9 g
+Fiber 0.3 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot--garlic-chutney-22304r</t>
+  </si>
+  <si>
+    <t>rcp40446</t>
+  </si>
+  <si>
+    <t>Carrot and Bell Pepper Soup</t>
+  </si>
+  <si>
+    <t>Ingredients
+Carrot and Bell Pepper Soup
+1/2 cup roughly chopped carrot
+1/2 cup roughly chopped red capsicum
+1/2 cup roughly chopped yellow capsicum
+1/2 cup roughly chopped green capsicum
+1/2 cup roughly chopped tomatoes
+1/2 tsp dried mixed herbs
+1/2 tsp dry red chilli flakes (paprika)
+1/4 tsp freshly ground black pepper (kalimirch)
+1/8 tsp salt
+1/4 cup chopped onions
+2 tsp olive oil</t>
+  </si>
+  <si>
+    <t>For carrot and bell pepper soup
+To make carrot and bell pepper soup, heat the olive oil in a pressure cooker and add the onions. Cook the onions till translucent.
+Add the carrot, red capsicum, yellow capsicum and green capsicum, tomatoes mix well and sauté on medium heat for 4 minutes
+Add 1 cup of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer till smooth.
+Transfer the mixture into a deep non-stick pan, add the mixed herbs, chilli flakes, salt, pepper and 1/2 cup of water.
+Mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the carrot and bell pepper soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 68 cal
+Protein 1.4 g
+Carbohydrates 7.6 g
+Fiber 3 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 144.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-bell-pepper-soup-40446r</t>
+  </si>
+  <si>
+    <t>Carrot and Black Grape Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+Hopper Method
+2 cups carrot cubes (unpeeled)
+1 cup black grapes
+crushed ice for serving</t>
+  </si>
+  <si>
+    <t>Hopper method
+Add the carrot cubes and black grapes a few at a time in the hopper.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve immediately.
+Juicer method
+This recipe doesn’t turn out good in a juicer because the textures of ingredients like carrots is very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 77 cal
+Protein 0.9 g
+Carbohydrates 17.5 g
+Fiber 3.3 g
+Fat 0.3 g
+Cholesterol 0.1 mg
+Sodium 19.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-black-grape-juice-6226r</t>
+  </si>
+  <si>
+    <t>Carrot and Black Grape Juice ( Party Drinks )</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/2 cups carrots , roughly chopped
+2 cups black grapes
+1/2 tsp cumin seeds (jeera) powder
+2 pinches black salt (sanchal)
+1 cup crushed ice</t>
+  </si>
+  <si>
+    <t>Combine the carrots with ¾ cup of water in a mixer and blend to a smooth juice. Strain the juice.
+Combine the carrot juice, black grapes, cumin seed powder and black salt in a mixer and blend well to a smooth juice.
+In each rock glass, place ¼ cup of crushed ice. Pour equal quantity of the juice over it. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 77 cal
+Protein 0.9 g
+Carbohydrates 17.7 g
+Fiber 3.4 g
+Fat 0.3 g
+Cholesterol 0.1 mg
+Sodium 20.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-black-grape-juice--party-drinks--33196r</t>
+  </si>
+  <si>
+    <t>Carrot and Cabbage High Fibre Chutney Open Toast</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup thickly grated carrot
+1 cup shredded cabbage
+1 recipe high fibre chutney
+6 whole wheat bread slices
+salt to taste
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Combine the high fibre chutney, cabbage, carrots and salt in a bowl, mix well and keep aside.
+Place 2 bread slices on a flat surface and spread a portion of the chutney-vegetable topping evenly over the bread slices.
+Heat and grease a non-stick tava (griddle) using ¼ tsp of oil and place each open toast with the mixture side facing downwards and cook, using ¼ tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 2 and 3 to make 2 more batches.
+Cut each toast into 4 equal triangles and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 75 cal
+Protein 2.2 g
+Carbohydrates 12.4 g
+Fiber 1.4 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-cabbage-high-fibre-chutney-open-toast-39219r</t>
+  </si>
+  <si>
+    <t>Carrot and Cabbage Salad in Orange Dressing</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Salad
+1 cup shredded cabbage
+1/2 cup grated carrot
+2 tbsp chopped celery (ajmoda)
+1/2 cup chopped capsicum
+To Be Mixed Into An Orange Dressing
+2 tbsp readymade orange juice
+1/2 cup curds (dahi)
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients for the salad in a deep bowl and mix well.
+Add the mint dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 40 cal
+Protein 1.2 g
+Carbohydrates 8.3 g
+Fiber 2.4 g
+Fat 0.2 g
+Cholesterol 0 mg
+Vitamin A 880 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 74.7 mg
+Folic Acid 8.5 mcg
+Calcium 53.2 mg
+Iron 1 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 7 mg
+Potassium 19.6 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-cabbage-salad-in-orange-dressing-1355r</t>
+  </si>
+  <si>
+    <t>Carrot and Coriander Soup</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot and Coriander Soup
+2 cups carrot cubes
+2 tbsp finely chopped coriander (dhania)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>For carrot and coriander soup
+To make the carrot and coriander soup, combine the carrot and 1½ cups of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Transfer the carrot along with the water into a deep bowl, add the coriander and blend using a hand blender to a coarse mixture.
+Transfer the carrot-coriander mixture into a deep non-stick pan, add ½ cup of water, salt and pepper, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the carrot and coriander soup hot.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.6 g
+Carbohydrates 6.1 g
+Fiber 2.6 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 21.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-coriander-soup-37602r</t>
+  </si>
+  <si>
+    <t>rcp5605</t>
+  </si>
+  <si>
+    <t>Carrot and Moong Dal Pulao</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup chopped carrots
+2 tbsp green moong dal (split green gram) , washed and drained
+1 cup rice (chawal) , washed and drained
+1 tbsp oil
+2 cloves (laung / lavang)
+25 mm (1”) stick cinnamon (dalchini)
+1 bayleaf (tejpatta)
+1/2 cup finely chopped onions
+1 1/2 tsp chilli powder
+salt to taste
+For Serving
+fresh curd</t>
+  </si>
+  <si>
+    <t>Heat the oil in a pressure cooker, add the cloves, cinnamon and bayleaf and sauté on a medium flame for a few seconds. Add the onions and chilli powder and sauté on a medium flame for 1 minute.
+Add the carrots, rice, moong dal, salt and 2 cups of water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot with fresh curds.</t>
+  </si>
+  <si>
+    <t>Energy 211 cal
+Protein 4.8 g
+Carbohydrates 38.8 g
+Fiber 2.9 g
+Fat 4.1 g
+Cholesterol 0 mg
+Vitamin A 301.8 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 1.1 mg
+Vitamin C 2.2 mg
+Folic Acid 16.1 mcg
+Calcium 28.2 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 7.5 mg
+Potassium 116.6 mg
+Zinc 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-moong-dal-pulao-716r</t>
+  </si>
+  <si>
+    <t>Carrot and Moong Dal Soup for Babies and Toddlers</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot and Moong Dal Soup
+1/2 cup roughly chopped carrot
+1 tbsp yellow moong dal (split yellow gram) , washed and drained
+a pinch of freshly ground black pepper (kalimirch) , optional</t>
+  </si>
+  <si>
+    <t>For carrot and moong dal soup
+To make carrot and moong dal soup for babies and toddlers, combine the carrot, yellow moong dal and 1 cup of water in a pressure cooker, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Allow the mixture to cool completely, once cooled blend in a mixer till smooth.
+Transfer the mixture into a broad non-stick pan and add pepper powder. Mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve the carrot and moong dal soup for babies and toddlers lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 86 cal
+Protein 4.1 g
+Carbohydrates 16.5 g
+Fiber 4.5 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 31.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-moong-dal-soup-for-babies-and-toddlers-40472r</t>
+  </si>
+  <si>
+    <t>Carrot and Orange Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+4 medium sized carrot , , cut into cubes
+2 medium sized oranges , separated into segments
+1 tsp lemon juice
+1/2 cup water
+10 to 12 ice cubes
+For Serving
+crushed ice</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients with 1 cup of cold water in a mixer and blend till smooth.
+Strain the juice using a strainer or a muslin cloth.
+Add some crushed ice into 4 individual glasses and pour the juice over it.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 108 cal
+Protein 1.4 g
+Carbohydrates 24.7 g
+Fiber 5.6 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 38.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-orange-juice-2347r</t>
+  </si>
+  <si>
+    <t>Carrot and Red Pepper Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot and Red Pepper Juice
+3/4 cup peeled carrot cubes
+3/4 cup red capscium cubes
+1 cup deseeded tomato cubes , see handy tip
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Carrot and red pepper juice in vitamix
+Combine the carrots cubes, capsicum cubes, tomato cubes, ½ cup of water and ice-cubes in a high quality blender jar (like vitamix) and blend well.
+Serve immediately.
+Carrot and red pepper juice in juicer (hopper)
+Add the carrot cubes, capsicum cubes and tomato cubes a few at a time in a juicer (hopper).
+Add 2 to 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve immediately.
+Handy tip:
+2 tomatoes will give approx. 1 cup of deseeded tomato cubes.</t>
+  </si>
+  <si>
+    <t>Energy 17 cal
+Protein 0.7 g
+Carbohydrates 3.3 g
+Fiber 1.5 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-and-red-pepper-juice-39020r</t>
+  </si>
+  <si>
+    <t>rcp1322</t>
+  </si>
+  <si>
+    <t>Carrot Cabbage and Buckwheat Pancake, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Cabbage and Buckwheat Pancake
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup buckwheat (kuttu or kutti no daro)
+1 tsp ginger (adrak) paste
+1 tsp green chilli paste
+1 tsp roasted and crushed cumin seeds (jeera)
+1 tsp dried mango powder (amchur)
+1/8 tsp salt
+1 1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For carrot cabbage and buckwheat pancake
+Clean, wash and soak the buckwheat in ½ cup water in a deep bowl and keep aside for 20 minutes.
+Blend the soaked buckwheat in a mixer along with the water till smooth.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick mini pancake pan and grease it with ½ tsp of oil.
+Pour 1 tbsp of the batter into each of the 7 pancake moulds and spread it in a circular motion to make a 63 mm. (2½") diameter round.
+Cook them till they turn golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 10 more mini pancakes in 2 more batches.
+Serve the carrot cabbage and buckwheat pancake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 19 cal
+Protein 0.5 g
+Carbohydrates 2.9 g
+Fiber 0.4 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 24.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-cabbage-and-buckwheat-pancake-low-salt-recipe-22306r</t>
+  </si>
+  <si>
+    <t>Carrot Coriander Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Coriander Juice
+2 cups grated carrot
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>For carrot coriander juice
+To make carrot coriander juice, combine the carrots and 2 cups of chilled water in a mixer and blend till smooth.
+Transfer into a bowl, add all the remaining ingredients and mix well.
+Pour the carrot coriander juice into 6 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 15 cal
+Protein 0.3 g
+Carbohydrates 3.3 g
+Fiber 1.3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 11 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-coriander-juice-5531r</t>
+  </si>
+  <si>
+    <t>Carrot Fritters</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups thickly grated carrot
+1/4 cup finely chopped capsicum
+1/4 cup finely chopped spring onions
+1/4 cup finely chopped coriander (dhania)
+2 tbsp finely chopped parsley
+2 tsp finely chopped garlic (lehsun)
+1/4 cup besan (bengal gram flour)
+1 tsp cumin seeds (jeera)
+2 tsp dry red chilli flakes (paprika)
+salt and freshly ground black pepper (kalimirch) to taste
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>Combine all ingredients in a deep bowl and mix well.
+Divide the mixture into 16 equal portions and shape each portion into a 25 mm. (1’) diameter flat round fritter.
+Heat the oil in a deep non-stick pan and deep-fry the fritters, a few at a time, till they turn golden brown in colour from both the sides. Drain on an absorbent paper.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 38 cal
+Protein 0.7 g
+Carbohydrates 2.9 g
+Fiber 1 g
+Fat 2.7 g
+Cholesterol 0 mg
+Vitamin A 278.5 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.1 mg
+Vitamin C 4.6 mg
+Folic Acid 7.2 mcg
+Calcium 12.8 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 6.4 mg
+Potassium 38.2 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-fritters-41790r</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup thickly grated carrot
+2 tbsp chopped garlic (lehsun)
+2 tsp chilli powder
+1/4 tsp lemon juice
+1 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with 2 tbsp of water in a mixer and blend to a coarse chutney.
+Transfer the chutney into an air-tight container, refrigerate use as required.</t>
+  </si>
+  <si>
+    <t>Energy 15 cal
+Protein 0.2 g
+Carbohydrates 1.7 g
+Fiber 0.6 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 4.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-garlic-chutney-3398r</t>
+  </si>
+  <si>
+    <t>Carrot Garlic Chutney ( Diabetic Recipe)</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup carrot , thickly grated
+2 tbsp chopped garlic (lehsun)
+2 tsp chilli powder
+1/4 tsp lemon juice
+1 tsp oil
+1 tsp salt</t>
+  </si>
+  <si>
+    <t>Sprinkle ½ teaspoon of salt on the grated carrots and leave aside for 30 minutes. Drain out the juice.
+Grind the garlic, chilli powder, lemon juice and the remaining ½ teaspoon of salt along with ¼ cup of water to a fine paste in a blender or a mortar and pestle.
+Combine the carrots, garlic paste and oil in a bowl and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 9 cal
+Protein 0.1 g
+Carbohydrates 1.2 g
+Fiber 0.4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 197.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-garlic-chutney--diabetic-recipe-3513r</t>
+  </si>
+  <si>
+    <t>Carrot Juice for Babies</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Juice For Babies
+1 1/2 cups roughly chopped carrot</t>
+  </si>
+  <si>
+    <t>For carrot juice for babies
+To make carrot juice for babies, put a few carrots in a hopper at a time to obtain the juice.
+Serve the carrot juice for babies immediately.</t>
+  </si>
+  <si>
+    <t>Energy 111 cal
+Protein 2.1 g
+Carbohydrates 24.5 g
+Fiber 10.2 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 82.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-juice-for-babies-40466r</t>
+  </si>
+  <si>
+    <t>rcp39015</t>
+  </si>
+  <si>
+    <t>Carrot Methi Subzi ( Delicious Diabetic Recipe)</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Methi Subzi
+2 cups carrot cubes
+2 cups finely chopped fenugreek (methi) leaves
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+3/4 cup finely chopped onions
+1 tsp finely chopped green chillies
+1 tsp finely chopped garlic (lehsun)
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander (dhania) powder
+salt to taste
+For Serving With Carrot Methi Subzi
+parathas
+rotis</t>
+  </si>
+  <si>
+    <t>For carrot methi subzi
+To make carrot methi subzi, heat the oil in a non-stick kadhai and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 minute.
+Add the green chillies and garlic, mix well and sauté on a medium flame for 30 seconds.
+Add the fenugreek leaves, turmeric powder,coriander powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the carrots, salt and 1 cup of water, mix well and cover and cook for 7 to 8 minutes, while stirring occasionally.
+Serve the carrot methi subzi hot with whole wheat parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 55 cal
+Protein 1.2 g
+Carbohydrates 6.6 g
+Fiber 2.6 g
+Fat 2.7 g
+Cholesterol 0 mg
+Sodium 21.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-methi-subzi--delicious-diabetic-recipe-3503r</t>
+  </si>
+  <si>
+    <t>Carrot Methi Subzi ( Vitamin A and Vitamin C Rich Recipe )</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Methi Subzi
+2 cups chopped carrots
+2 cups chopped fenugreek (methi) leaves
+1/2 tsp cumin seeds (jeera)
+3/4 cup finely chopped onions
+3 to 4 finely chopped green chillies
+1 large clove garlic, finely chopped
+12 mm finely chopped ginger (adrak)
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander (dhania) powder
+2 tsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>For carrot methi subzi
+To make carrot methi sabzi recipe, heat the oil in a non-stick kadhai and add the cumin seeds.
+When they crackle, add the onions, green chillies, garlic and ginger and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves and sauté on a medium flame for another 2 minutes.
+Add the carrots, turmeric powder, coriander powder, salt and 1 cup of water, mix well, cover and cook over a slow flame till all the moisture has evaporated and the carrots are tender.
+Serve the carrot methi sabzi hot with phulkas.</t>
+  </si>
+  <si>
+    <t>Energy 79 cal
+Protein 1.6 g
+Carbohydrates 11.7 g
+Fiber 4.8 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 39.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-methi-subzi--vitamin-a-and-vitamin-c-rich-recipe--35081r</t>
+  </si>
+  <si>
+    <t>Carrot Pickle, Instant Gajar ka Achar</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Pickle
+1 cup carrot , cut into thin slices
+1/2 tsp nigella seeds (kalonji)
+2 tsp split fenugreek seeds (methi na kuria)
+2 tsp split mustard seeds (rai na kuria)
+1/4 tsp asafoetida (hing)
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1 1/2 tbsp mustard (rai / sarson) oil</t>
+  </si>
+  <si>
+    <t>For carrot pickle
+To make carrot pickle, combine all the ingredients, except the oil, in a bowl and mix well. Keep aside.
+Heat the mustard oil in a small pan, add it to the carrot mixture and mix well.
+Serve the carrot pickle immediately or keep refrigerated till use.
+Handy tips:
+This carrot pickle stays fresh for 3 to 4 days.
+Indian or red carrots are ideal to use for this pickle.</t>
+  </si>
+  <si>
+    <t>Energy 65 cal
+Protein 0.3 g
+Carbohydrates 3.3 g
+Fiber 1.4 g
+Fat 5.6 g
+Cholesterol 0 mg
+Sodium 11.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-pickle-instant-gajar-ka-achar-3001r</t>
+  </si>
+  <si>
+    <t>Carrot Soup for Babies</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Soup For Babies
+1/2 cup peeled and roughly chopped carrot</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>For carrot soup for babies
+To make carrot soup for babies combine the carrot and 1 cup of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer till smooth.
+Strain the mixture using a strainer.
+Serve the carrot soup for babies lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 0.7 g
+Carbohydrates 8.2 g
+Fiber 3.4 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 27.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-soup-for-babies-40464r</t>
+  </si>
+  <si>
+    <t>Carrot Spinach and Parsley Vegetabe Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot Spinach and Parsley Vegetabe Juice
+3 cups carrot cubes , peeled
+1/4 cup roughly chopped spinach (palak)
+1/4 cup roughly chopped parsley stems with leaves
+2 tbsp roughly chopped celery (ajmoda) sticks
+1 tbsp lemon juice
+12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Carrot, spinach and parsley juice in vitamix
+To make carrot, spinach and parsley juice in vitamix, combine the carrots, spinach, parsley, celery, lemon juice and 2½ cups of water and ice cubes in a high quality blender jar (like vitamix) and blend well till smooth and frothy.
+Serve immediately.
+Carrot, spinach and parsley juice in juicer
+Add the carrot cubes, chopped spinach, chopped parsley and chopped celery sticks a few at a time in the juicer.
+Add lemon juice and mix well.
+Add 3 ice-cubes in each of the 4 glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve carrot, spinach and parsley juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.7 g
+Carbohydrates 5.9 g
+Fiber 2.3 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 23.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-spinach-and-parsley-vegetabe-juice-6224r</t>
+  </si>
+  <si>
+    <t>rcp22251</t>
+  </si>
+  <si>
+    <t>Carrot, Spinach, Orange and Cucumber Drink, Ibs Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/4 cups roughly chopped carrot
+1/2 cup roughly chopped spinach (palak)
+1/2 cup roughly chopped orange
+1/2 cup roughly chopped cucumber</t>
+  </si>
+  <si>
+    <t>Add the carrot, spinach, orange and cucumber a few at a time in a hopper.
+Pour the drink in 2 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 76 cal
+Protein 1.6 g
+Carbohydrates 16.2 g
+Fiber 5.9 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 49.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-spinach-orange-and-cucumber-drink-ibs-recipe-41534r</t>
+  </si>
+  <si>
+    <t>Carrot, Tomato and Beetroot Juice</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot , Tomato and Beetroot Juice
+2 cups chilled carrot juliennes
+1 cup chilled tomato segments
+3/4 cup chilled beetroot strips
+a pinch of salt
+For Serving With Carrot , Tomato and Beetroot Juice
+8 ice-cubes</t>
+  </si>
+  <si>
+    <t>For carrot, tomato and beetroot juice
+Add the carrots, tomato and beetroot a few at a time in a hopper.
+Add the salt to the juice and mix well.
+Pour equal quantities of the carrot, tomato and beetroot juice into 4 individual glasses.
+Serve the carrot, tomato and beetroot juice immediately topped with 2 ice-cubes in each glass.</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.8 g
+Carbohydrates 6.5 g
+Fiber 2.7 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 24.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-tomato-and-beetroot-juice-39018r</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Carrot, Tomato and Egg Smoothie</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Carrot , Tomato and Egg Smoothie
+1 cup roughly chopped carrot
+1/2 cup roughly chopped tomatoes
+1 boiled eggs , cut into half
+1/2 cup roughly chopped red capsicum
+1/8 tsp salt
+10 ice-cubes</t>
+  </si>
+  <si>
+    <t>For carrot, tomato and egg smoothie
+To make carrot tomato egg smoothie, combine all the ingredients along with 1 cup of water in a vitamix machine and blend till smooth and frothy.
+Serve the carrot tomato egg smoothie chilled.</t>
+  </si>
+  <si>
+    <t>Energy 64 cal
+Protein 3.2 g
+Carbohydrates 7.3 g
+Fiber 3.1 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 151.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/carrot-tomato-and-egg-smoothie-40110r</t>
+  </si>
+  <si>
+    <t>rcp4120</t>
+  </si>
+  <si>
+    <t>Cauliflower Methi Roti, Healthy Gobi Methi Jowar Paratha</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cauliflower Methi Roti
+3/4 cup jowar (white millet) flour
+1/4 cup whole wheat flour (gehun ka atta)
+1/4 cup finely chopped fenugreek (methi) leaves
+1/4 cup chopped coriander (dhania)
+1/4 cup grated cauliflower
+2 tsp finely chopped green chillies
+salt to taste
+jowar (white millet) flour for rolling
+2 tsp oil for cooking
+For Serving With Cauliflower Methi Roti
+fresh low fat curd (dahi)</t>
+  </si>
+  <si>
+    <t>For cauliflower methi roti
+To make cauliflower methi roti, combine all the ingredients in a bowl and knead into a soft dough using enough water.
+Divide the dough into 8 equal portions and roll out each portion into a 75 mm. (3") diameter circle, using a little jowar flour.
+Heat a non-stick tava (griddle) and cook the roti, using ¼ tsp of oil, till brown spots appear on both the sides.
+Repeat with the remaining portions to make 7 more rotis.
+Serve the cauliflower methi roti hot with fresh low-fat curd.</t>
+  </si>
+  <si>
+    <t>Energy 55 cal
+Protein 1.4 g
+Carbohydrates 9.1 g
+Fiber 1.4 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 3.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-methi-roti-healthy-gobi-methi-jowar-paratha-5285r</t>
+  </si>
+  <si>
+    <t>Cauliflower Stir Fry, Gobi Fry</t>
+  </si>
+  <si>
+    <t>Ingredients
+3 cups cauliflower florets
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tbsp oil
+2 tsp ginger-garlic (adrak-lehsun) paste
+3 green chillies , slit each into 2
+1/2 tsp chilli powder
+2 tsp dried fenugreek leaves (kasuri methi)
+1/2 tsp garam masala
+1 1/2 cups finely finely chopped tomatoes
+1/4 cup chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For cauliflower stir fry
+To make cauliflower stir fry, boil enough water in a deep non-stick pan, add the cauliflower florets, turmeric powder and salt, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally. Drain and keep aside.
+Heat the oil in a broad non-stick pan, add the ginger-garlic paste and green chillies and saute on a medium flame for 1 minute.
+Add the chilli powder, dried fenugreek leaves, garam masala and tomatoes and cook on a medium flame for 2 minutes.
+Add the cauliflower, coriander and salt, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve cauliflower stir fry immediately.</t>
+  </si>
+  <si>
+    <t>Energy 98 cal
+Protein 2 g
+Carbohydrates 4.6 g
+Fiber 3.2 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 37.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-stir-fry-gobi-fry-22677r</t>
+  </si>
+  <si>
+    <t>Cauliflower Stuffing ( For Parathas)</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/2 cups grated cauliflower
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1 tbsp chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan add the cumin seeds and cook on a medium flame for a few seconds.
+Add the onions, green chillies and sauté on medium flame for 1 to 2 minutes.
+Add the cauliflower and salt, sprinkle a little water, mix well and cook on medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 89 cal
+Protein 2.1 g
+Carbohydrates 6.7 g
+Fiber 2.5 g
+Fat 6 g
+Cholesterol 0 mg
+Vitamin A 188 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.8 mg
+Vitamin C 40.1 mg
+Folic Acid 2.3 mcg
+Calcium 40.6 mg
+Iron 1 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 34.3 mg
+Potassium 135.1 mg
+Zinc 0.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-stuffing--for-parathas-1377r</t>
+  </si>
+  <si>
+    <t>rcp4168</t>
+  </si>
+  <si>
+    <t>Celery and Black Pepper Rice</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 tbsp chopped celery (ajmoda)
+1/2 tsp freshly ground black pepper (kalimirch)
+2 1/2 cups cooked chinese rice
+1 tbsp oil
+1 tsp finely chopped garlic (lehsun)
+1/2 cup bean sprouts
+salt to taste</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the garlic and sauté on a high flame for a few seconds.
+Add the celery and bean sprouts and sauté on a high flame for 1 minute.
+Add the chinese rice, salt and pepper, mix well and cook on a high flame for 2 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 290 cal
+Protein 3.7 g
+Carbohydrates 38.4 g
+Fiber 2.3 g
+Fat 13.6 g
+Cholesterol 0 mg
+Vitamin A 161.6 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.9 mg
+Vitamin C 0.5 mg
+Folic Acid 3.8 mcg
+Calcium 23.2 mg
+Iron 0.7 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 0 mg
+Potassium 0 mg
+Zinc 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/celery-and-black-pepper-rice-4168r</t>
+  </si>
+  <si>
+    <t>Chaas, Buttermilk Recipe, Salted Chaas Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Chaas
+2 cups fresh curd (dahi) , whisked
+1 tsp cumin seeds (jeera) powder
+1/2 tsp ginger-green chilli paste
+1/2 tsp black salt (sanchal)
+salt to taste
+1 tsp oil
+1/4 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+For The Chaas Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For the chaas
+To make the chaas, combine the curds, cumin seeds powder, ginger-green chilli paste, black salt and salt in a deep bowl and mix well.
+Add 4 cups of chilled water and whisk well. Keep aside.
+For the tempering, heat the oil in a small pan and add the cumin seeds.
+When the seeds crackle, add the asafoetida and pour the tempering over the buttermilk.
+Serve the chaas chilled garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 128 cal
+Protein 4.3 g
+Carbohydrates 5 g
+Fiber 0 g
+Fat 7.8 g
+Cholesterol 16 mg
+Sodium 19 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chaas-buttermilk-recipe-salted-chaas-recipe-542r</t>
+  </si>
+  <si>
+    <t>rcp2583</t>
+  </si>
+  <si>
+    <t>Chana Dal and Cabbage Tikki</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chana Dal and Cabbage Tikki
+1 cup soaked and drained chana dal (split bengal gram)
+1/2 cup finely chopped cabbage
+1 tbsp roughly chopped green chillies
+2 tbsp finely chopped mint leaves (phudina)
+a pinch of turmeric powder (haldi)
+1 1/2 tsp cumin seeds (jeera) powder
+2 tbsp low fat curds (dahi)
+salt to taste
+1/4 cup besan (bengal gram flour)
+1 3/4 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For chana dal and cabbage tikki
+To make chana dal and cabbage tikki, combine the chana dal, green chillies and 2 tbsp of water in a mixer and blend to a coarse paste.
+Transfer the paste into a deep bowl, add all the remaining ingredients and mix well.
+Divide the mixture into 6 equal portions and keep aside.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Shape a portion of the mixture into a 63 mm (2½ “) flat round tikki and immediately cook it on the tava (griddle) on a slow flame, using ¼ tsp oil, till it turns golden brown in colour from both the sides.
+Repeat the step 5 to make 5 more tikkis.
+Serve the chana dal and cabbage tikki immediately.
+Handy tip:
+Make the mixture for the tikkis just before cooking them and shape them one by one and directly cook them on a tava (griddle) and also do not shape the tikkis in advance.</t>
+  </si>
+  <si>
+    <t>Energy 104 cal
+Protein 5.2 g
+Carbohydrates 14.6 g
+Fiber 3.9 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 20.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-and-cabbage-tikki-38028r</t>
+  </si>
+  <si>
+    <t>Chana Dal Fry, Punjabi Masala Chana Dal</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chana Dal Fry
+3/4 cup chana dal (split bengal gram)
+1/2 tsp turmeric powder (haldi)
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+a pinch of asafoetida (hing)
+1 tbsp finely chopped garlic (lehsun)
+1 tsp finely chopped ginger (adrak)
+1 tsp chopped green chillies
+1/2 cup finely chopped onions
+3/4 cup chopped tomatoes
+1 tsp chilli powder
+1 tsp coriander (dhania) powder
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+1 tsp dried fenugreek leaves (kasuri methi)
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Soak the chana dal in enough hot water for 1 hour. Drain well.
+Combine the soaked chana dal, turmeric powder and 2½ cups of water in a pressure cooker, mix well and pressure cook for 5 whistles.
+Allow the steam to escape before opening the lid.
+Whisk the dal using a whisk. Keep aside.
+Heat the oil in a deep non-stick pan, add the cumin seeds, asafeotida, garlic, ginger and green chillies and sauté on a medium flame for 1 to 2 minutes.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the tomatoes, chilli powder, coriander powder, garam masala, dried mango powder and 2 tbsp of water, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the dried fenugreek leaves, salt, whisked dal, mix well and cook on a medium flame for 3 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 222 cal
+Protein 8.3 g
+Carbohydrates 25.4 g
+Fiber 6.4 g
+Fat 9.7 g
+Cholesterol 0 mg
+Sodium 32.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-fry-punjabi-masala-chana-dal-42370r</t>
+  </si>
+  <si>
+    <t>Chana Dal Puri</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chana Dal Puri
+1/2 cup chana dal (split bengal gram)
+1 cup whole wheat flour (gehun ka atta)
+1/4 cup semolina (rava / sooji)
+2 tbsp finely chopped coriander (dhania)
+1 tsp green chilli paste
+1/4 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+1 tbsp oil
+salt to taste
+oil for deep-frying</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>Combine the chana dal and enough hot water in a deep bowl and soak for 1 hour. Drain well.
+Blend in a mixer along with ¼ cup of water to a smooth paste.
+Transfer the paste into a deep bowl, add all the other ingredients and mix well to knead into a soft dough without using any water.
+Divide the dough into 24 equal portions.
+Roll out each portion of the dough into a 75 mm. (3") diameter round.
+Heat the oil in a deep non-stick pan and deep-fry the puris a few at a time till they turn golden brown in colour from both the sides. Drain on an absorbent paper and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 62 cal
+Protein 1.6 g
+Carbohydrates 6.7 g
+Fiber 0.7 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 4.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-puri-42449r</t>
+  </si>
+  <si>
+    <t>rcp4971</t>
+  </si>
+  <si>
+    <t>Chana Dal Vada, Crispy Chana Dal Vada</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chana Dal Vada
+1 cup chana dal (split bengal gram)
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp finely chopped green chillies
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1/4 cup chopped coriander (dhania)
+1/4 cup grated fresh coconut
+salt to taste
+oil for deep-frying
+For Serving With Chana Dal Vada
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For chana dal vada
+To make chana dal vada, clean, wash and soak the chana dal in enough hot water for 2 hours. Drain well.
+Combine the soaked chana dal, dry red chillies, green chillies, cumin seeds and ¼ cup of water in a mixer and blend to a thick coarse paste.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well using your hands.
+Divide the mixture into 18 equal portions and roll each portion into a round flat vada.
+Heat the oil in a deep non-stick pan, deep-fry a few vadas at a time on a medium flame till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve the chana dal vada immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 87 cal
+Protein 2 g
+Carbohydrates 6.1 g
+Fiber 1.6 g
+Fat 6.1 g
+Cholesterol 0 mg
+Vitamin A 79.8 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 1 mg
+Folic Acid 13.8 mcg
+Calcium 7.6 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 7 mg
+Potassium 71.1 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-dal-vada-crispy-chana-dal-vada-4971r</t>
+  </si>
+  <si>
+    <t>Chana, Tuvar and Green Moong Dal, Trevati Dal</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chana , Tuvar and Green Moong Dal
+1/2 cup chana dal (split bengal gram)
+1/2 cup toovar (arhar) dal
+1/2 cup green moong dal (split green gram)
+1 tsp cumin seeds (jeera)
+2 cloves (laung / lavang)
+2 bay leaves (tejpatta)
+2 whole dry kashmiri red chillies
+1/4 tsp asafoetida (hing)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+2 tbsp finely chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1/2 cup chopped tomatoes
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1 tbsp lemon juice
+2 tbsp oil
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For chana, tuvar and green moong dal
+To make chana, tuvar and green moong dal, clean, wash and soak the dals in water about 30 minutes. Drain.
+Combine the soaked dals, salt and 3½ cups of water in a pressure cooker and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a pan, add the cumin seeds, cloves, bayleaves, red chillies and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions, green chillies, garlic and ginger and sauté on a medium flame for 1 to 2 minutes.
+Add the tomatoes, chilli powder and turmeric powder, mix well and cook on a medium flame for 3 to 4 minutes or till the oil separates from the masala.
+Add the dals and 2 cups of water, lemon juice and salt and simmer for 10 minutes.
+Serve the chana, tuvar and green moong dal hot garnished with the chopped coriander.
+Handy tip :
+To make a "jain" trevati dal, omit the onions, ginger and garlic and proceed as per the recipe.</t>
+  </si>
+  <si>
+    <t>Energy 229 cal
+Protein 11.4 g
+Carbohydrates 31.3 g
+Fiber 5.7 g
+Fat 6.5 g
+Cholesterol 0 mg
+Sodium 23.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chana-tuvar-and-green-moong-dal-trevati-dal-38470r</t>
+  </si>
+  <si>
+    <t>Chapati For Making Wraps</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup whole wheat flour (gehun ka atta)
+1 cup plain flour (maida)
+4 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling</t>
+  </si>
+  <si>
+    <t>Combine the flours, oil and salt in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into equal 12 portions.
+Roll a portion of the dough into a 150 mm. (6") diameter thin round using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the chapatis lightly on both the sides.
+Repeat step 3 and 4 to make 11 more chapatis.
+Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.5 g
+Carbohydrates 15.9 g
+Fiber 1.4 g
+Fat 2 g
+Cholesterol 0 mg
+Sodium 3.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chapati-for-making-wraps-4775r</t>
+  </si>
+  <si>
+    <t>rcp32600</t>
+  </si>
+  <si>
+    <t>Chapati, Healthy Chapati for Weight Loss</t>
+  </si>
+  <si>
+    <t>Ingredients
+For The Chapati
+1 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+3 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>For the chapati
+To make the chapatis, combine all the ingredients in a deep bowl and knead into a soft dough using enough water. Keep aside for 15 minutes.
+Divide the dough into 6 portions and roll out each portion of the dough into a 150 mm. (6”) diameter thin circle using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) on a high flame and when hot, place the chapati gently over it.
+Cook it till small blisters appear on the surface. Turn over the chapati and press all over lightly using a muslin cloth till it puffs up.
+Apply ¼ tsp oil on both the sides and cook for few more seconds.
+Serve the chapati immediately.</t>
+  </si>
+  <si>
+    <t>Energy 104 cal
+Protein 2.6 g
+Carbohydrates 15.7 g
+Fiber 2.6 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chapati-healthy-chapati-for-weight-loss-7608r</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Char Dal ka Dalcha, Hyderabadi Veg Dalcha</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/4 cup chana dal (split bengal gram) , washed and drained
+1/4 cup toovar (arhar) dal , washed and drained
+2 tbsp masoor dal (split red lentil) , washed and drained
+2 tbsp yellow moong dal (split yellow gram) , washed and drained
+1 tsp turmeric powder (haldi)
+1 1/2 tsp chilli powder
+salt to taste
+2 tbsp oil
+1 cup sliced onions
+1 1/2 tbsp roughly chopped garlic (lehsun)
+2 bayleaves (tejpatta)
+2 slit green chillies
+1 tsp ginger (adrak) paste
+1/2 cup red pumpkin (bhopla / kaddu) cubes
+1/4 cup tamarind (imli) pulp
+2 tbsp ghee
+1 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp nigella seeds (kalonji)
+6 curry leaves (kadi patta)
+3 whole dry kashmiri red chillies , broken into pieces</t>
+  </si>
+  <si>
+    <t>36 mins</t>
+  </si>
+  <si>
+    <t>Combine the dals and enough hot water in a deep bowl and soak it for 30 minutes. Drain well.
+Combine the soaked dals, turmeric powder, chilli powder, salt and 1½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep non-stick pan, add ¾ cup of onions, garlic, bayleaf and green chillies and sauté on a medium flame for 3 minutes.
+Add the ginger paste, pumpkin and salt and mix gently. Cover with a lid and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the cooked dals, tamarind pulp, mix well and cook on a medium flame for 10 minutes, while stirring occasionally. Keep aside.
+Heat the ghee in a small non-stick pan, add the cumin seeds, mustard seeds, onion seeds, remaining ¼ cup of onions, curry leaves and dry red chillies and sauté on a medium flame for 3 minutes.
+Pour it over the cooked dal and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 278 cal
+Protein 8.8 g
+Carbohydrates 27.2 g
+Fiber 4.3 g
+Fat 15.1 g
+Cholesterol 0 mg
+Sodium 17.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/char-dal-ka-dalcha-hyderabadi-veg-dalcha-41487r</t>
+  </si>
+  <si>
+    <t>Char Grilled Aubergine and Sweet Peppers Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 big brinjal (baingan / eggplant) , cut into thick slices
+1 red capsicum
+1 yellow capsicum
+1 green capsicum
+olive oil for roasting
+To Be Mixed Together For The Dressing
+2 tbsp chopped celery (ajmoda)
+1/4 cup chopped walnuts (akhrot)
+2 tbsp chopped parsley
+3 tbsp olive oil
+salt and freshly ground black pepper powder to taste
+For The Garnish
+torn lettuce leaves
+sprouted fenugreek (methi) seeds</t>
+  </si>
+  <si>
+    <t>Grill the aubergine/brinjal slices using little olive oil on a griller or an open flame till black. Keep aside.
+Grease the coloured capsicum with olive oil and pierce the capsicum using a fork. Roast on an open flame till the skin is charred. Deskin and cut the capsicum into big pieces.
+Arrange the aubergine and coloured capsicum on a plate and drizzle the dressing over it.
+Serve hot garnished with lettuce and sprouts.</t>
+  </si>
+  <si>
+    <t>Energy 180 cal
+Protein 2.6 g
+Carbohydrates 5.2 g
+Fiber 3 g
+Fat 16.7 g
+Cholesterol 0 mg
+Sodium 8.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/char-grilled-aubergine-and-sweet-peppers-salad-36285r</t>
+  </si>
+  <si>
+    <t>Chatambade, Masala Vade, Chattambade</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup chana dal (split bengal gram)
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp finely chopped green chillies
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+4 tbsp chopped coriander (dhania)
+1/2 cup freshly grated coconut
+2 tbsp roughly chopped curry leaves (kadi patta)
+salt to taste
+coconut oil or any other oil for deep-frying
+Fried coconut chutney for serving</t>
+  </si>
+  <si>
+    <t>Clean, wash and soak the dal overnight. Drain and keep aside.
+Combine the dal, red chillies, green chillies, cumin seeds and a little water and blend in a mixer to a coarse paste.
+Add the onions, coriander, curry leaves and salt and mix well.
+Divide the mixture into 20 equal portions and shape each portion into a small round.
+Heat the oil in a kadhai and deep-fry till they turn golden brown in colour. Drain on absorbent paper. Serve hot with fried coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 89 cal
+Protein 1.9 g
+Carbohydrates 5.6 g
+Fiber 1.6 g
+Fat 6.5 g
+Cholesterol 0 mg
+Vitamin A 97.1 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 1.3 mg
+Folic Acid 12.6 mcg
+Calcium 7.5 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 6.5 mg
+Potassium 64.8 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatambade-masala-vade-chattambade-32667r</t>
+  </si>
+  <si>
+    <t>rcp39382</t>
+  </si>
+  <si>
+    <t>Chatpata Chawli and Fruit Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup soaked and boiled small chawli
+1/2 cup black grapes , cut into halves
+1/2 cup orange segments , cut into halves
+1/2 cup pomegranate (anar)
+1 1/2 tsp chaat masala
+2 tbsp finely chopped coriander (dhania)
+2 tsp lemon juice
+salt to taste
+For The Garnish
+1 tbsp wheat germ</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a bowl and toss well.
+Serve immediately garnished with wheat germ.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 5.4 g
+Carbohydrates 19.4 g
+Fiber 4.3 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 110.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpata-chawli-and-fruit-salad-39382r</t>
+  </si>
+  <si>
+    <t>Chatpata Dahiwala Bread, Curd Bread Snack</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chatpata Dahiwala Bread
+5 bread slices , cut into cubes
+1/2 cup curd (dahi)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+3 to 4 curry leaves (kadi patta)
+1/2 tsp grated ginger (adrak)
+1/4 cup thinly sliced onions
+2 tbsp oil
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Chatpata dahiwala bread
+To make chatpata dahiwala bread, combine the curds, turmeric powder, chilli powder and salt along with 2 tbsp of water in a bowl and mix well.
+Add the bread cubes and mix till the bread is coated with the curds mixture. Keep aside.
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the asafoetida, curry leaves and ginger and sauté on medium flame for a few seconds.
+Add the onion slices and saute on a medium flame for 1 to 2 minutes or till they are lightly brown in colour.
+Add the bread mixture and sauté on a slow flame for 1 to 2 minutes or till the bread turns light brown in colour, while stirring occasionally.
+Serve the chatpata dahiwala bread hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 320 cal
+Protein 6.1 g
+Carbohydrates 29.3 g
+Fiber 0 g
+Fat 18.6 g
+Cholesterol 8 mg
+Sodium 9.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpata-dahiwala-bread-curd-bread-snack-2876r</t>
+  </si>
+  <si>
+    <t>Chatpata Kand</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 1/2 cups steamed purple yam (kand) cubes
+2 tbsp oil
+1/2 tsp chilli powder
+1/4 tsp black salt (sanchal)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the purple yam and sauté on a medium flame for 2 minutes.
+Add the chilli powder, black salt and salt, mix well and cook on a medium flame for 8 to 10 minutes or till it turns golden brown in colour, while stirring occasionally.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 151 cal
+Protein 1 g
+Carbohydrates 19.5 g
+Fiber 3.1 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 6.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpata-kand-35940r</t>
+  </si>
+  <si>
+    <t>Chatpata Pomegranate ( Tiffin Treats)</t>
+  </si>
+  <si>
+    <t>Ingredients
+3/4 cup pomegranate (anar)
+1/4 tsp chaat masala
+1/4 tsp dried mango powder (amchur)
+1/4 tsp cumin seeds (jeera) powder
+black salt (sanchal) to taste</t>
+  </si>
+  <si>
+    <t>Energy 94 cal
+Protein 2.3 g
+Carbohydrates 20.9 g
+Fiber 4 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 3877.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpata-pomegranate--tiffin-treats-40351r</t>
+  </si>
+  <si>
+    <t>Chatpata Sprouts On Crispy Potatoes</t>
+  </si>
+  <si>
+    <t>Ingredients
+To Be Mixed Together For The Topping
+1/2 cup boiled mixed sprouts
+1 tsp chilli powder
+1 tsp chaat masala
+1 tsp cumin seeds (jeera) powder
+2 tsp lemon juice
+salt to taste
+Other Ingredients
+12 boiled , peeled and thickly sliced potatoes
+oil for greasing and cooking
+6 tsp green chutney
+12 tsp sweet chutney
+6 tbsp whisked fresh curds (dahi)
+1/4 tsp chilli powder</t>
+  </si>
+  <si>
+    <t>Heat a non-stick tava (griddle), grease it with oil, place the potatoes on it and cook on a medium flame till both the sides are golden brown in colour, using little oil.
+Place the potatoes on a serving plate, put 1 tbsp of the mixed sprouts mixture and spread 1 tsp of green chutney, 1 tsp of sweet chutney and ½ tbsp of curds on each potato slice.
+Sprinkle a little chilli powder on top and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 157 cal
+Protein 3.4 g
+Carbohydrates 15.5 g
+Fiber 4.2 g
+Fat 8.8 g
+Cholesterol 0 mg
+Vitamin A 1710.1 mcg
+Vitamin B1 0 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.7 mg
+Vitamin C 40 mg
+Folic Acid 44.2 mcg
+Calcium 145.4 mg
+Iron 6.2 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 12.3 mg
+Potassium 138.1 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpata-sprouts-on-crispy-potatoes-31023r</t>
+  </si>
+  <si>
+    <t>Chatpate Aloo</t>
+  </si>
+  <si>
+    <t>Ingredients
+3 cups potato fingers
+oil for deep-frying
+1 tsp coriander (dhania) powder
+1 tsp cumin seeds (jeera) powder
+1 tsp chilli powder
+1 tsp dried mango powder (amchur)
+a pinch of asafoetida (hing)
+salt to taste
+2 tbsp chopped coriander (dhania)
+1 tbsp oil
+3/4 cup sliced capsicum (red , yellow and green)
+2 tsp roasted sesame seeds (til)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick kadhai and deep-fry half the potato fingers on a medium flame till they turn crisp and golden brown in colour from all the sides. Drain on an absorbent paper.
+In the same way, deep-fry the remaining potato fingers, drain on absorobent paper and keep aside.
+Transfer all the deep-fried potato fingers into a deep bowl, add the coriander powder, cumin seeds powder, chilli powder, dried mango powder, asafoetida, salt and coriander and toss well. Keep aside.
+Heat the oil in a broad non-stick pan, add the capsicum and sauté on a medium flame for 1 to 2 minutes.
+Add the masala coated potatoes, toss gently and cook on a medium flame for another 2 minutes, while tossing ocassionally.
+Switch off the flame, add the sesame seeds and toss gently.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 163 cal
+Protein 2.2 g
+Carbohydrates 25.8 g
+Fiber 2.4 g
+Fat 5.7 g
+Cholesterol 0 mg
+Vitamin A 261.8 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0 mg
+Vitamin B3 1.4 mg
+Vitamin C 37.8 mg
+Folic Acid 18.7 mcg
+Calcium 35.2 mg
+Iron 0.7 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 13.3 mg
+Potassium 276.8 mg
+Zinc 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpate-aloo-30876r</t>
+  </si>
+  <si>
+    <t>Chatpati Chana Dal Chaat, Chana Dal Bhel</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chatpati Chana Dal Chaat
+1 cup fried masala chana dal
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+1 tsp lemon juice
+1/2 tsp finely chopped green chillies
+1/2 tsp chaat masala
+For The Garnish
+1 tbsp sev</t>
+  </si>
+  <si>
+    <t>For chatpati chana dal chaat
+To make chatpati chana dal chaat, combine all the ingredients in a deep bowl and mix well.
+Serve immediately garnished with sev.</t>
+  </si>
+  <si>
+    <t>Energy 518 cal
+Protein 28.4 g
+Carbohydrates 84.1 g
+Fiber 21.3 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 104.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chatpati-chana-dal-chaat-chana-dal-bhel-41375r</t>
+  </si>
+  <si>
+    <t>rcp36695</t>
+  </si>
+  <si>
+    <t>Chawli and Beetroot Soup</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 1/4 cups soaked chawli (cow pea / lobhia)
+1/2 cup roughly chopped beetroot
+1 tbsp roughly chopped garlic (lehsun)
+salt and to taste
+For The Garnish
+1/4 cup finely chopped onions
+1/4 cup finely chopped tomatoes
+1/4 cup soaked and cooked chawli (cow pea / lobhia)</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>Combine the chawli, beetroot, garlic and 2 cups of water in a pressure cooker, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer till smooth.
+Transfer the chawli-beetroot mixture into a deep non-stick pan, add the salt, pepper and 1½ cups of water, mix well and cook on a medium flame for 5 to 6 minutes, while stirring occasionally.
+Serve hot garnished with onions, tomatoes and chawli.</t>
+  </si>
+  <si>
+    <t>Energy 85 cal
+Protein 6.2 g
+Carbohydrates 14.3 g
+Fiber 4.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 11.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-beetroot-soup-40897r</t>
+  </si>
+  <si>
+    <t>Chawli and Sprouted Moong Salad, Healthy Chawli Vegetable Salad</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Chawli and Sprouted Moong Salad
+1 cup soaked and boiled chawli (cow pea / lobhia)
+1/4 cup boiled sprouted moong (whole green gram)
+1/4 cup chopped tomatoes
+1/4 cup chopped spring onions whites and greens
+1/4 cup chopped cabbage
+1 tsp lemon juice
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp dried mango powder (amchur)
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>For chawli and sprouted moong salad
+To make chawli and sprouted moong salad, combine all the ingredients in a deep bowl and mix well.
+Serve the chawli and sprouted moong salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 112 cal
+Protein 8.1 g
+Carbohydrates 18.9 g
+Fiber 5.7 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 140.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-and-sprouted-moong-salad-healthy-chawli-vegetable-salad-38448r</t>
+  </si>
+  <si>
+    <t>Chawli Bhaji</t>
+  </si>
+  <si>
+    <t>Ingredients
+8 cups chopped chawli (cow pea / lobhia) leaves
+1/4 tsp turmeric powder (haldi)
+salt to taste
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+8 to 10 curry leaves (kadi patta)
+4 whole dry kashmiri red chillies , broken into pieces
+2 tsp urad dal (split black lentils)
+a pinch of asafoetida (hing)</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>Combine the chawli leaves, turmeric powder, salt and 1¾ cups of water in a deep non-stick pan and cook on a medium flame for 5 to 7 minutes or till half of the water dries out. Keep aside to cool slightly.
+Blend in a mixer till smooth and keep aside.
+Heat the oil in a non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the curry leaves, red chillies, urad dal and asafoetida and sauté on a medium flame for a few seconds.
+Add the chawli mixture and a little salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 91 cal
+Protein 5.9 g
+Carbohydrates 9.5 g
+Fiber 5.7 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 313.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chawli-bhaji-6409r</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +5326,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4130,37 +6740,37 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>219</v>
+        <v>538</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>225</v>
+        <v>544</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>226</v>
+        <v>545</v>
       </c>
       <c r="F38" t="s" s="0">
         <v>26</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>228</v>
+        <v>546</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>229</v>
+        <v>547</v>
       </c>
       <c r="J38" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>230</v>
+        <v>548</v>
       </c>
       <c r="L38" t="s" s="0">
         <v>38</v>
@@ -4168,10 +6778,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>219</v>
+        <v>538</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>231</v>
+        <v>549</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>15</v>
@@ -4180,25 +6790,25 @@
         <v>15</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>232</v>
+        <v>550</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>233</v>
+        <v>551</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>234</v>
+        <v>552</v>
       </c>
       <c r="J39" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>235</v>
+        <v>553</v>
       </c>
       <c r="L39" t="s" s="0">
         <v>38</v>
@@ -4206,10 +6816,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>236</v>
+        <v>538</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>237</v>
+        <v>554</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>15</v>
@@ -4218,25 +6828,25 @@
         <v>15</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>238</v>
+        <v>555</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>61</v>
+        <v>556</v>
       </c>
       <c r="G40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>239</v>
+        <v>557</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>240</v>
+        <v>558</v>
       </c>
       <c r="J40" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K40" t="s" s="0">
-        <v>241</v>
+        <v>559</v>
       </c>
       <c r="L40" t="s" s="0">
         <v>38</v>
@@ -4244,48 +6854,48 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>538</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>243</v>
+        <v>560</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>244</v>
+        <v>561</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>74</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>245</v>
+        <v>562</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>246</v>
+        <v>563</v>
       </c>
       <c r="J41" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K41" t="s" s="0">
-        <v>247</v>
+        <v>564</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>236</v>
+        <v>565</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>248</v>
+        <v>566</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>15</v>
@@ -4294,7 +6904,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>249</v>
+        <v>567</v>
       </c>
       <c r="F42" t="s" s="0">
         <v>53</v>
@@ -4303,27 +6913,27 @@
         <v>74</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>250</v>
+        <v>568</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>251</v>
+        <v>569</v>
       </c>
       <c r="J42" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K42" t="s" s="0">
-        <v>252</v>
+        <v>570</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>236</v>
+        <v>565</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>253</v>
+        <v>571</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>15</v>
@@ -4332,7 +6942,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>254</v>
+        <v>572</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>53</v>
@@ -4341,65 +6951,65 @@
         <v>74</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>255</v>
+        <v>573</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>256</v>
+        <v>574</v>
       </c>
       <c r="J43" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>257</v>
+        <v>575</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>259</v>
+        <v>577</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>261</v>
+        <v>578</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>262</v>
+        <v>579</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>263</v>
+        <v>580</v>
       </c>
       <c r="J44" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K44" t="s" s="0">
-        <v>264</v>
+        <v>581</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>242</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>266</v>
+        <v>582</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>267</v>
+        <v>583</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>15</v>
@@ -4408,101 +7018,101 @@
         <v>15</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>268</v>
+        <v>584</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>26</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>269</v>
+        <v>585</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>270</v>
+        <v>586</v>
       </c>
       <c r="J45" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>271</v>
+        <v>587</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>582</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>273</v>
+        <v>588</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>274</v>
+        <v>589</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>275</v>
+        <v>590</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>276</v>
+        <v>591</v>
       </c>
       <c r="J46" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K46" t="s" s="0">
-        <v>277</v>
+        <v>592</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>272</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>278</v>
+        <v>582</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>279</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>280</v>
+        <v>594</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>26</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>281</v>
+        <v>596</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>282</v>
+        <v>597</v>
       </c>
       <c r="J47" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>283</v>
+        <v>598</v>
       </c>
       <c r="L47" t="s" s="0">
         <v>38</v>
@@ -4510,10 +7120,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>278</v>
+        <v>599</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>284</v>
+        <v>600</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>15</v>
@@ -4522,28 +7132,826 @@
         <v>15</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>285</v>
+        <v>601</v>
       </c>
       <c r="F48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="L48" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="L49" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G48" t="s" s="0">
+      <c r="H50" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="L50" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="L51" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="L52" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="L53" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="L54" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="L55" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="L56" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="L57" t="s" s="0">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="L58" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="L59" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="H48" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="I48" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="J48" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="L48" t="s" s="0">
+      <c r="H60" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="L60" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="L61" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="L62" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="L63" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="L64" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="L65" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="L66" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K67" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="L67" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="L68" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="L69" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
